--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63A76A4-05CE-46DC-A5A5-E8EF93ACB99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>875. Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/koko-eating-bananas/description/</t>
+  </si>
+  <si>
+    <t>We apply binary search on the speed, rather than an index location.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,13 +98,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +122,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
+    <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty"/>
+    <tableColumn id="3" xr3:uid="{3EE9083D-0D63-4750-A722-07E106EC8E7D}" name="Pattern"/>
+    <tableColumn id="4" xr3:uid="{DE704AFB-97F3-4301-86F4-4553376A5970}" name="Link"/>
+    <tableColumn id="5" xr3:uid="{ADF26966-BF99-4413-BC99-50E1713332B4}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +400,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="62.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63A76A4-05CE-46DC-A5A5-E8EF93ACB99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BA2A85-CFBA-4C63-A961-9DB5EE3195AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Question</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>We apply binary search on the speed, rather than an index location.</t>
+  </si>
+  <si>
+    <t>78. Subsets</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subsets/solutions/27281/a-general-approach-to-backtracking-questions-in-java-subsets-permutations-combination-sum-palindrome-partitioning/</t>
+  </si>
+  <si>
+    <t>11. Container With Most Water</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
   </si>
 </sst>
 </file>
@@ -78,12 +93,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,14 +119,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -125,14 +155,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E4" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
-    <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty"/>
+    <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{3EE9083D-0D63-4750-A722-07E106EC8E7D}" name="Pattern"/>
+    <tableColumn id="6" xr3:uid="{A7F8125B-A46D-45A5-A7F7-7B50CAA3589B}" name="Notes"/>
     <tableColumn id="4" xr3:uid="{DE704AFB-97F3-4301-86F4-4553376A5970}" name="Link"/>
-    <tableColumn id="5" xr3:uid="{ADF26966-BF99-4413-BC99-50E1713332B4}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -401,18 +431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="165" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -426,27 +457,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BA2A85-CFBA-4C63-A961-9DB5EE3195AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F041F1-F262-4BB5-8DB0-70448AF8077D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33255" yWindow="2595" windowWidth="21600" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Question</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Binary Search</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/koko-eating-bananas/description/</t>
-  </si>
-  <si>
     <t>We apply binary search on the speed, rather than an index location.</t>
   </si>
   <si>
@@ -63,20 +60,47 @@
     <t>Backtracking</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/subsets/solutions/27281/a-general-approach-to-backtracking-questions-in-java-subsets-permutations-combination-sum-palindrome-partitioning/</t>
-  </si>
-  <si>
     <t>11. Container With Most Water</t>
   </si>
   <si>
     <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>130. Surrounded Regions</t>
+  </si>
+  <si>
+    <t>Graph DFS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/surrounded-regions/solutions/691675/c-beginner-friendly-boundary-dfs-inplace/</t>
+  </si>
+  <si>
+    <t>Use "Boundary DFS". Note that DFS is still O(mxn) time from a for loop, as long as we track visited.</t>
+  </si>
+  <si>
+    <t>42. Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Cumulative approach. Only consider l_max and r_max at each step, the smaller of the two is the limiting factor. We track water at each step, subtacting the elevation.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water/solutions/409175/java-detailed-explanations-illustrations-divide-and-conquer-dp-two-pointers/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/subsets/solutions/27281/a-general-approach-to-backtracking-questions-in-java-subsets-permutations-combination-sum-palindrome-partitioning/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/koko-eating-bananas/description/ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +116,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -116,15 +154,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -155,8 +197,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E4" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E6" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -431,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,41 +516,81 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{67C889D1-3FCF-46F6-8BA2-E44E44B7A806}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{34AF42B2-F7C3-444F-9437-E4DD902D8E3B}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{33411E88-F8DD-4E5F-B657-74CCC74E6087}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{1BC867A0-C11D-4912-997B-3C024C8BBA1B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F041F1-F262-4BB5-8DB0-70448AF8077D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583BAE29-496F-4A12-868F-D415D62A0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33255" yWindow="2595" windowWidth="21600" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Question</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/koko-eating-bananas/description/ </t>
+  </si>
+  <si>
+    <t>136. Single Number</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Use XOR on each element. Only the unique will be left. Constant memory is a clue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/single-number/solutions/1772139/c-explained-everything-w-why-xor-works-brute-force-to-optimized-step-by-step-dry-run/ </t>
   </si>
 </sst>
 </file>
@@ -125,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +159,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -158,12 +179,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -197,8 +219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E6" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E7" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -473,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,16 +603,34 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{67C889D1-3FCF-46F6-8BA2-E44E44B7A806}"/>
     <hyperlink ref="E6" r:id="rId2" xr:uid="{34AF42B2-F7C3-444F-9437-E4DD902D8E3B}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{33411E88-F8DD-4E5F-B657-74CCC74E6087}"/>
     <hyperlink ref="E2" r:id="rId4" xr:uid="{1BC867A0-C11D-4912-997B-3C024C8BBA1B}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{1E718499-25E1-441F-847B-8652990868AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583BAE29-496F-4A12-868F-D415D62A0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787A6EAF-CFC4-4123-A7E2-C950BA6DABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Question</t>
   </si>
@@ -109,6 +109,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/single-number/solutions/1772139/c-explained-everything-w-why-xor-works-brute-force-to-optimized-step-by-step-dry-run/ </t>
+  </si>
+  <si>
+    <t>153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>We consider where the pivot is in left and right portions, and need a basic check for an already sorted portion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/solutions/158940/beat-100-very-simple-python-very-detailed-explanation/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/generate-parentheses/solutions/10391/java-solution-using-stack/ </t>
+  </si>
+  <si>
+    <t>22. Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Custom class and stack, track string, # of open and closed parentheses per step. Use DFS loop.</t>
   </si>
 </sst>
 </file>
@@ -219,8 +240,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E7" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E9" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -495,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.140625" bestFit="1" customWidth="1"/>
@@ -620,6 +641,40 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{67C889D1-3FCF-46F6-8BA2-E44E44B7A806}"/>
@@ -627,10 +682,12 @@
     <hyperlink ref="E3" r:id="rId3" xr:uid="{33411E88-F8DD-4E5F-B657-74CCC74E6087}"/>
     <hyperlink ref="E2" r:id="rId4" xr:uid="{1BC867A0-C11D-4912-997B-3C024C8BBA1B}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{1E718499-25E1-441F-847B-8652990868AB}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{820D0F9C-F5FC-4E8B-B4A5-93051FD1326B}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{9BA49F7F-4CAC-4DBD-A253-07CC0A09022B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787A6EAF-CFC4-4123-A7E2-C950BA6DABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B801C00-8DF6-4566-B83B-8FB11F2564E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Question</t>
   </si>
@@ -130,6 +130,36 @@
   </si>
   <si>
     <t>Custom class and stack, track string, # of open and closed parentheses per step. Use DFS loop.</t>
+  </si>
+  <si>
+    <t>191. Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Bit Shifting: While n != 0, count += (n&amp;1), unsigned right shift (&gt;&gt;&gt;) by 1. Optimal solution is n = n &amp; (n-1) without shifting.</t>
+  </si>
+  <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/number-of-1-bits/solutions/55099/simple-java-solution-bit-shifting/ </t>
+  </si>
+  <si>
+    <t>Fast and Slow pointers, move fast n ahead, slow.next = slow.next.next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/remove-nth-node-from-end-of-list/solutions/1164542/js-python-java-c-easy-two-pointer-solution-w-explanation/ </t>
+  </si>
+  <si>
+    <t>90. Subsets 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/subsets-ii/solutions/388566/subsets-i-ii-java-solution-with-detailed-explanation-and-comments-recursion-iteration/ </t>
+  </si>
+  <si>
+    <t>Power Set, skip iterations with duplicate previous element.</t>
   </si>
 </sst>
 </file>
@@ -240,8 +270,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E9" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E12" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -516,17 +546,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="165" bestFit="1" customWidth="1"/>
   </cols>
@@ -673,6 +703,57 @@
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -684,10 +765,13 @@
     <hyperlink ref="E7" r:id="rId5" xr:uid="{1E718499-25E1-441F-847B-8652990868AB}"/>
     <hyperlink ref="E8" r:id="rId6" xr:uid="{820D0F9C-F5FC-4E8B-B4A5-93051FD1326B}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{9BA49F7F-4CAC-4DBD-A253-07CC0A09022B}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{04FB09A1-8EB8-479A-B02B-F862155606BF}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{C7C4F192-0AD1-4F87-A820-28F5B48326B8}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{B06B4F0B-6CD1-479B-BC0E-0188888E02DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B801C00-8DF6-4566-B83B-8FB11F2564E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA4BE1-3464-4A82-BB13-1A6DDA6DF19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Question</t>
   </si>
@@ -160,6 +160,24 @@
   </si>
   <si>
     <t>Power Set, skip iterations with duplicate previous element.</t>
+  </si>
+  <si>
+    <t>338. Counting Bits</t>
+  </si>
+  <si>
+    <t>DP with offset power of 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/counting-bits/solutions/79557/how-we-handle-this-question-on-interview-thinking-process-dp-solution/ </t>
+  </si>
+  <si>
+    <t>Two passes: 1. Copy nodes and hashmap, 2. point nodes</t>
+  </si>
+  <si>
+    <t>138. Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/copy-list-with-random-pointer/solutions/43491/a-solution-with-constant-space-complexity-o-1-and-linear-time-complexity-o-n/ </t>
   </si>
 </sst>
 </file>
@@ -270,8 +288,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E12" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E14" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -546,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,6 +774,40 @@
         <v>43</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{67C889D1-3FCF-46F6-8BA2-E44E44B7A806}"/>
@@ -768,10 +820,12 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{04FB09A1-8EB8-479A-B02B-F862155606BF}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{C7C4F192-0AD1-4F87-A820-28F5B48326B8}"/>
     <hyperlink ref="E12" r:id="rId10" xr:uid="{B06B4F0B-6CD1-479B-BC0E-0188888E02DB}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{C2B1D465-CB43-44CA-9444-60D36E9CB30E}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{54151347-508C-4C1B-8C99-2DF2DA76C0E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA4BE1-3464-4A82-BB13-1A6DDA6DF19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910AC832-4DAC-4858-8BF0-B99EECEC8C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Question</t>
   </si>
@@ -171,13 +171,25 @@
     <t xml:space="preserve">https://leetcode.com/problems/counting-bits/solutions/79557/how-we-handle-this-question-on-interview-thinking-process-dp-solution/ </t>
   </si>
   <si>
-    <t>Two passes: 1. Copy nodes and hashmap, 2. point nodes</t>
-  </si>
-  <si>
     <t>138. Copy List with Random Pointer</t>
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/copy-list-with-random-pointer/solutions/43491/a-solution-with-constant-space-complexity-o-1-and-linear-time-complexity-o-n/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/gas-station/solutions/1706142/java-c-python-an-explanation-that-ever-exists-till-now/ </t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Track by diffs (total &gt;= 0), initial check, find res by exhaustion.</t>
+  </si>
+  <si>
+    <t>Two passes: 1. Copy nodes and hashmap, 2. point nodes.</t>
+  </si>
+  <si>
+    <t>134. Gas Station</t>
   </si>
 </sst>
 </file>
@@ -288,8 +300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E14" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E15" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -564,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +805,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
@@ -802,9 +814,26 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -822,10 +851,11 @@
     <hyperlink ref="E12" r:id="rId10" xr:uid="{B06B4F0B-6CD1-479B-BC0E-0188888E02DB}"/>
     <hyperlink ref="E13" r:id="rId11" xr:uid="{C2B1D465-CB43-44CA-9444-60D36E9CB30E}"/>
     <hyperlink ref="E14" r:id="rId12" xr:uid="{54151347-508C-4C1B-8C99-2DF2DA76C0E0}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{838AB99B-DADE-45A3-9ACD-F1530FB8675D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910AC832-4DAC-4858-8BF0-B99EECEC8C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C3282-7DB4-43C7-AAD2-56237ADA9C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Question</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>134. Gas Station</t>
+  </si>
+  <si>
+    <t>2. Add Two Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/add-two-numbers/solutions/1835535/java-c-a-very-beautiful-explanation-ever-exists/ </t>
+  </si>
+  <si>
+    <t>Use dummy and tail for optimal O(n) time. Straightforward addition, but handle edge cases and linked list manipulation. Use modulo and division to compute the carry value.</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -300,8 +312,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E15" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E15" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E17" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -576,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +847,31 @@
       </c>
       <c r="E15" s="3" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -852,10 +889,11 @@
     <hyperlink ref="E13" r:id="rId11" xr:uid="{C2B1D465-CB43-44CA-9444-60D36E9CB30E}"/>
     <hyperlink ref="E14" r:id="rId12" xr:uid="{54151347-508C-4C1B-8C99-2DF2DA76C0E0}"/>
     <hyperlink ref="E15" r:id="rId13" xr:uid="{838AB99B-DADE-45A3-9ACD-F1530FB8675D}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{679BFF8C-2337-4737-B033-83BFFCF607DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C3282-7DB4-43C7-AAD2-56237ADA9C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91A7D35-AD67-47E3-8729-B5C625FB4C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>Question</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/linked-list-cycle/solutions/ </t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Tortoise and the Hare (Floyd's)</t>
   </si>
 </sst>
 </file>
@@ -312,8 +321,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E17" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E18" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -588,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,12 +875,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -890,10 +916,11 @@
     <hyperlink ref="E14" r:id="rId12" xr:uid="{54151347-508C-4C1B-8C99-2DF2DA76C0E0}"/>
     <hyperlink ref="E15" r:id="rId13" xr:uid="{838AB99B-DADE-45A3-9ACD-F1530FB8675D}"/>
     <hyperlink ref="E16" r:id="rId14" xr:uid="{679BFF8C-2337-4737-B033-83BFFCF607DA}"/>
+    <hyperlink ref="E18" r:id="rId15" xr:uid="{EFEFB475-E12A-4CF8-AAEA-E3575FD99DE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91A7D35-AD67-47E3-8729-B5C625FB4C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6155655B-F7E0-4D6F-8655-F89536696205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Question</t>
   </si>
@@ -211,6 +211,21 @@
   </si>
   <si>
     <t>Tortoise and the Hare (Floyd's)</t>
+  </si>
+  <si>
+    <t>Visualize graphically the pivot point, look for the most ideal conditions to narrow the search, and reject the rest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/search-in-rotated-sorted-array/solutions/14436/revised-binary-search/ </t>
+  </si>
+  <si>
+    <t>287. Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked List Cycle and Floyd's algorithm for cycle start searching (2 phases). Consider the elements as index pointers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-the-duplicate-number/solutions/1892921/9-approaches-count-hash-in-place-marked-sort-binary-search-bit-mask-fast-slow-pointers/ </t>
   </si>
 </sst>
 </file>
@@ -321,8 +336,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E18" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E19" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -597,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,6 +897,15 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -898,6 +922,23 @@
       </c>
       <c r="E18" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -917,10 +958,12 @@
     <hyperlink ref="E15" r:id="rId13" xr:uid="{838AB99B-DADE-45A3-9ACD-F1530FB8675D}"/>
     <hyperlink ref="E16" r:id="rId14" xr:uid="{679BFF8C-2337-4737-B033-83BFFCF607DA}"/>
     <hyperlink ref="E18" r:id="rId15" xr:uid="{EFEFB475-E12A-4CF8-AAEA-E3575FD99DE1}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{0E6029DC-60FC-49FB-ADE6-581D48832B02}"/>
+    <hyperlink ref="E19" r:id="rId17" xr:uid="{779680FF-B359-44BF-AE11-6A3B522CD565}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6155655B-F7E0-4D6F-8655-F89536696205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E926B3C0-40EE-42DF-9A83-DDDC9797D36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>Question</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/find-the-duplicate-number/solutions/1892921/9-approaches-count-hash-in-place-marked-sort-binary-search-bit-mask-fast-slow-pointers/ </t>
+  </si>
+  <si>
+    <t>146. LRU Cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/lru-cache/solutions/45911/java-hashtable-double-linked-list-with-a-touch-of-pseudo-nodes/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a Hash Table that keeps track of the keys and its values in a Doubly Linked List. DLL nodes can remove themselves without other reference. </t>
   </si>
 </sst>
 </file>
@@ -336,8 +345,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E19" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E20" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E20" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -612,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +948,23 @@
       </c>
       <c r="E19" s="3" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -960,10 +986,11 @@
     <hyperlink ref="E18" r:id="rId15" xr:uid="{EFEFB475-E12A-4CF8-AAEA-E3575FD99DE1}"/>
     <hyperlink ref="E17" r:id="rId16" xr:uid="{0E6029DC-60FC-49FB-ADE6-581D48832B02}"/>
     <hyperlink ref="E19" r:id="rId17" xr:uid="{779680FF-B359-44BF-AE11-6A3B522CD565}"/>
+    <hyperlink ref="E20" r:id="rId18" xr:uid="{058627D1-004E-4197-99FE-FA1395D34CF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E926B3C0-40EE-42DF-9A83-DDDC9797D36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77187E5B-8CE0-4CE3-A801-E841381E5784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>Question</t>
   </si>
@@ -198,9 +198,6 @@
     <t xml:space="preserve">https://leetcode.com/problems/add-two-numbers/solutions/1835535/java-c-a-very-beautiful-explanation-ever-exists/ </t>
   </si>
   <si>
-    <t>Use dummy and tail for optimal O(n) time. Straightforward addition, but handle edge cases and linked list manipulation. Use modulo and division to compute the carry value.</t>
-  </si>
-  <si>
     <t>33. Search in Rotated Sorted Array</t>
   </si>
   <si>
@@ -235,6 +232,18 @@
   </si>
   <si>
     <t xml:space="preserve">Use a Hash Table that keeps track of the keys and its values in a Doubly Linked List. DLL nodes can remove themselves without other reference. </t>
+  </si>
+  <si>
+    <t>Use dummy and tail for optimal O(n) time. Use modulo and division to compute the carry value. Carry can exist in the last step so consider in while loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/merge-k-sorted-lists/solutions/429518/java-summary-of-all-solutions-b-f-minpq-divide-and-conquer/ </t>
+  </si>
+  <si>
+    <t>23. Merge K Sorted Lists</t>
+  </si>
+  <si>
+    <t>Use dummy node "trick" and Merge 2 Sorted Lists Function. Merge each list in place onto lists[0]. Optimal is the divide and conquer (merge sort).  You need a helper function to recursively call the Merge 2 Lists on each half to reduce it to 1.</t>
   </si>
 </sst>
 </file>
@@ -345,8 +354,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E20" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E20" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E21" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E21" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -621,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +902,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>56</v>
@@ -901,7 +910,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
@@ -910,15 +919,15 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>24</v>
@@ -927,15 +936,15 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -944,15 +953,15 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -961,10 +970,27 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -987,10 +1013,11 @@
     <hyperlink ref="E17" r:id="rId16" xr:uid="{0E6029DC-60FC-49FB-ADE6-581D48832B02}"/>
     <hyperlink ref="E19" r:id="rId17" xr:uid="{779680FF-B359-44BF-AE11-6A3B522CD565}"/>
     <hyperlink ref="E20" r:id="rId18" xr:uid="{058627D1-004E-4197-99FE-FA1395D34CF4}"/>
+    <hyperlink ref="E21" r:id="rId19" xr:uid="{2810D8E6-93E5-47FE-A546-C8FD7F65845A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77187E5B-8CE0-4CE3-A801-E841381E5784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BED5C40-690C-40B2-98DA-E4B3DFB2C421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>Question</t>
   </si>
@@ -244,6 +244,27 @@
   </si>
   <si>
     <t>Use dummy node "trick" and Merge 2 Sorted Lists Function. Merge each list in place onto lists[0]. Optimal is the divide and conquer (merge sort).  You need a helper function to recursively call the Merge 2 Lists on each half to reduce it to 1.</t>
+  </si>
+  <si>
+    <t>25. Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>We need a dummy node and to track kStart and kLast. Consider groups k at a time. If the kth node in the group is null, that is the break condition of the while loop. Use standard reverse code in a function and call iteratively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/reverse-nodes-in-k-group/solutions/11440/non-recursive-java-solution-and-idea/ </t>
+  </si>
+  <si>
+    <t>1448. Count Good Nodes in Binary Tree</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/count-good-nodes-in-binary-tree/solutions/635555/java-100-simple-easy-code-using-pre-order-tree-traversal/ </t>
+  </si>
+  <si>
+    <t>Straightforward, call DFS on root. Define DFS preorder function, but track max on the path.</t>
   </si>
 </sst>
 </file>
@@ -354,8 +375,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E21" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E21" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E23" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -630,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,6 +1012,40 @@
       </c>
       <c r="E21" s="3" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1014,10 +1069,12 @@
     <hyperlink ref="E19" r:id="rId17" xr:uid="{779680FF-B359-44BF-AE11-6A3B522CD565}"/>
     <hyperlink ref="E20" r:id="rId18" xr:uid="{058627D1-004E-4197-99FE-FA1395D34CF4}"/>
     <hyperlink ref="E21" r:id="rId19" xr:uid="{2810D8E6-93E5-47FE-A546-C8FD7F65845A}"/>
+    <hyperlink ref="E22" r:id="rId20" xr:uid="{9181B169-9961-49A6-9CF6-FAE641250968}"/>
+    <hyperlink ref="E23" r:id="rId21" xr:uid="{3A1503FA-8BDB-42B7-B0BB-0E212DA4EE0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BED5C40-690C-40B2-98DA-E4B3DFB2C421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E25E01-F26D-4465-93CD-04461B7287A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>Question</t>
   </si>
@@ -265,6 +265,27 @@
   </si>
   <si>
     <t>Straightforward, call DFS on root. Define DFS preorder function, but track max on the path.</t>
+  </si>
+  <si>
+    <t>40. Combination Sum 2</t>
+  </si>
+  <si>
+    <t>Use distance from target as a loop condition. Sort the array first, and consider prev to handle duplicates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/combination-sum-ii/solutions/16878/combination-sum-i-ii-and-iii-java-solution-see-the-similarities-yourself/ </t>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Bucket sort. Use  counts as indices and numbers as values, and a hashmap to count occurrences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/top-k-frequent-elements/solutions/81602/java-o-n-solution-bucket-sort/ </t>
   </si>
 </sst>
 </file>
@@ -375,8 +396,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E23" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E25" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E25" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -651,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,6 +1067,40 @@
       </c>
       <c r="E23" s="3" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1071,10 +1126,12 @@
     <hyperlink ref="E21" r:id="rId19" xr:uid="{2810D8E6-93E5-47FE-A546-C8FD7F65845A}"/>
     <hyperlink ref="E22" r:id="rId20" xr:uid="{9181B169-9961-49A6-9CF6-FAE641250968}"/>
     <hyperlink ref="E23" r:id="rId21" xr:uid="{3A1503FA-8BDB-42B7-B0BB-0E212DA4EE0A}"/>
+    <hyperlink ref="E24" r:id="rId22" xr:uid="{D57C1505-3CD8-4B06-894A-1FFFA412ED79}"/>
+    <hyperlink ref="E25" r:id="rId23" xr:uid="{466C9492-3064-43BB-891D-C77B3A6F181B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E25E01-F26D-4465-93CD-04461B7287A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E13159-D517-4C93-A53F-AC963178AD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>Question</t>
   </si>
@@ -286,6 +286,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/top-k-frequent-elements/solutions/81602/java-o-n-solution-bucket-sort/ </t>
+  </si>
+  <si>
+    <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/validate-binary-search-tree/solutions/32109/my-simple-java-solution-in-3-lines/ </t>
+  </si>
+  <si>
+    <t>Use DFS, define min and max value for each node the value must fit in for base case. Use TreeNode objects to prevent overflow, start with root, null, null. Pass down the min and max values to children.</t>
+  </si>
+  <si>
+    <t>5. Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/longest-palindromic-substring/solutions/2921/share-my-java-solution-using-dynamic-programming/ </t>
+  </si>
+  <si>
+    <t>For palindrome, we take each index as a midpoint and expand outwards.</t>
   </si>
 </sst>
 </file>
@@ -396,8 +417,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E25" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E25" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E27" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E27" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -672,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,6 +1122,40 @@
       </c>
       <c r="E25" s="3" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1128,10 +1183,12 @@
     <hyperlink ref="E23" r:id="rId21" xr:uid="{3A1503FA-8BDB-42B7-B0BB-0E212DA4EE0A}"/>
     <hyperlink ref="E24" r:id="rId22" xr:uid="{D57C1505-3CD8-4B06-894A-1FFFA412ED79}"/>
     <hyperlink ref="E25" r:id="rId23" xr:uid="{466C9492-3064-43BB-891D-C77B3A6F181B}"/>
+    <hyperlink ref="E26" r:id="rId24" xr:uid="{F1C4EC1A-AFDD-494B-B1FC-A2FA22FEE06E}"/>
+    <hyperlink ref="E27" r:id="rId25" xr:uid="{DB844FD8-3D1D-45A1-BEF4-E35708C94256}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E13159-D517-4C93-A53F-AC963178AD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553592CB-CE1F-42AB-A98A-B142BABFC03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>Question</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>For palindrome, we take each index as a midpoint and expand outwards.</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Compute prefix and postfix and store in their own arrays. For each element multiply the prefix with the postfix at that index. For O(1) memory solution, do 2 passes and store in output. 1st pass prefix from left, then 2nd pass prefix from the right (for postfix).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/product-of-array-except-self/solutions/1342916/3-minute-read-mimicking-an-interview/ </t>
   </si>
 </sst>
 </file>
@@ -417,8 +426,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E27" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E27" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E28" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -693,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,6 +1165,23 @@
       </c>
       <c r="E27" s="3" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1185,10 +1211,11 @@
     <hyperlink ref="E25" r:id="rId23" xr:uid="{466C9492-3064-43BB-891D-C77B3A6F181B}"/>
     <hyperlink ref="E26" r:id="rId24" xr:uid="{F1C4EC1A-AFDD-494B-B1FC-A2FA22FEE06E}"/>
     <hyperlink ref="E27" r:id="rId25" xr:uid="{DB844FD8-3D1D-45A1-BEF4-E35708C94256}"/>
+    <hyperlink ref="E28" r:id="rId26" xr:uid="{F5910350-B785-44FC-B45C-6EE8606B793A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553592CB-CE1F-42AB-A98A-B142BABFC03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216E5280-E35C-4090-8C5F-9F76F1FE93ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
   <si>
     <t>Question</t>
   </si>
@@ -306,9 +306,6 @@
     <t xml:space="preserve">https://leetcode.com/problems/longest-palindromic-substring/solutions/2921/share-my-java-solution-using-dynamic-programming/ </t>
   </si>
   <si>
-    <t>For palindrome, we take each index as a midpoint and expand outwards.</t>
-  </si>
-  <si>
     <t>238. Product of Array Except Self</t>
   </si>
   <si>
@@ -316,6 +313,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/product-of-array-except-self/solutions/1342916/3-minute-read-mimicking-an-interview/ </t>
+  </si>
+  <si>
+    <t>For palindrome, we take each index as a midpoint and expand outwards. We use a dp[n][n] array to track palindromes starting at i,j, and also a variable for palindrome start and max length. At the end we return s.substring(palindrome_starts_at, palindrome_starts_at + max_len);</t>
+  </si>
+  <si>
+    <t>230. Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/kth-smallest-element-in-a-bst/solutions/63783/two-easiest-in-order-traverse-java/ </t>
+  </si>
+  <si>
+    <t>As BST is already sorted, we can visit all nodes and store in an array to solve, optimally, the BST is already sorted so no array is needed. Use a stack and solve iteratively to immediately return the kth smallest node.</t>
   </si>
 </sst>
 </file>
@@ -426,8 +435,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E28" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E29" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -702,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1170,7 @@
         <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>92</v>
@@ -1169,7 +1178,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -1178,10 +1187,27 @@
         <v>84</v>
       </c>
       <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>96</v>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1212,10 +1238,11 @@
     <hyperlink ref="E26" r:id="rId24" xr:uid="{F1C4EC1A-AFDD-494B-B1FC-A2FA22FEE06E}"/>
     <hyperlink ref="E27" r:id="rId25" xr:uid="{DB844FD8-3D1D-45A1-BEF4-E35708C94256}"/>
     <hyperlink ref="E28" r:id="rId26" xr:uid="{F5910350-B785-44FC-B45C-6EE8606B793A}"/>
+    <hyperlink ref="E29" r:id="rId27" xr:uid="{C9C72F80-F968-4D94-942D-1B3BB757FB18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216E5280-E35C-4090-8C5F-9F76F1FE93ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FADAC7-1650-4E87-9D37-76527F0BB9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
   <si>
     <t>Question</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t>As BST is already sorted, we can visit all nodes and store in an array to solve, optimally, the BST is already sorted so no array is needed. Use a stack and solve iteratively to immediately return the kth smallest node.</t>
+  </si>
+  <si>
+    <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/solutions/34538/my-accepted-java-solution/ </t>
+  </si>
+  <si>
+    <t>Recursive. From Preorder, recursively, the left node is the root, and that same node is at the middle pointer in the Inorder array. We can look for the value to be mid because every value is unique. The optimal solution does not use any arrays.</t>
   </si>
 </sst>
 </file>
@@ -435,8 +444,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E29" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E30" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E30" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -711,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,6 +1217,23 @@
       </c>
       <c r="E29" s="3" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1239,10 +1265,11 @@
     <hyperlink ref="E27" r:id="rId25" xr:uid="{DB844FD8-3D1D-45A1-BEF4-E35708C94256}"/>
     <hyperlink ref="E28" r:id="rId26" xr:uid="{F5910350-B785-44FC-B45C-6EE8606B793A}"/>
     <hyperlink ref="E29" r:id="rId27" xr:uid="{C9C72F80-F968-4D94-942D-1B3BB757FB18}"/>
+    <hyperlink ref="E30" r:id="rId28" xr:uid="{41016557-6E38-413D-BA8D-B608C90AF9C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FADAC7-1650-4E87-9D37-76527F0BB9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F196032-F800-461C-A2F1-A70104349539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
   <si>
     <t>Question</t>
   </si>
@@ -334,6 +334,24 @@
   </si>
   <si>
     <t>Recursive. From Preorder, recursively, the left node is the root, and that same node is at the middle pointer in the Inorder array. We can look for the value to be mid because every value is unique. The optimal solution does not use any arrays.</t>
+  </si>
+  <si>
+    <t>647. Palindromic Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/palindromic-substrings/solutions/105689/java-solution-8-lines-extendpalindrome/comments/1017849 </t>
+  </si>
+  <si>
+    <t>2 passes - Odd and Even. We consider each index as mid and expand outwards, but also consider the next adjacent to capture the even ones. This is the general formula for finding palindromes. The Dynamic Programming solution uses the dp array to track inner windows.</t>
+  </si>
+  <si>
+    <t>36. Valid Sudoku</t>
+  </si>
+  <si>
+    <t>Use a Hash Set for each rule. For the subsquare rule, we use an array [i][j] to get the the subsquare. Divide by 3 on the row and column to get the coordinates and obtain the subsquare it is in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/valid-sudoku/solutions/15472/short-simple-java-using-strings/ </t>
   </si>
 </sst>
 </file>
@@ -444,8 +462,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E30" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E30" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E32" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E32" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -720,9 +738,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -1234,6 +1252,40 @@
       </c>
       <c r="E30" s="3" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1266,10 +1318,12 @@
     <hyperlink ref="E28" r:id="rId26" xr:uid="{F5910350-B785-44FC-B45C-6EE8606B793A}"/>
     <hyperlink ref="E29" r:id="rId27" xr:uid="{C9C72F80-F968-4D94-942D-1B3BB757FB18}"/>
     <hyperlink ref="E30" r:id="rId28" xr:uid="{41016557-6E38-413D-BA8D-B608C90AF9C5}"/>
+    <hyperlink ref="E31" r:id="rId29" xr:uid="{C763F2BE-520C-4400-ABE4-26B2B59200A8}"/>
+    <hyperlink ref="E32" r:id="rId30" xr:uid="{B203F6D4-07B1-4014-A8D5-E8A72BF72AEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F196032-F800-461C-A2F1-A70104349539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6864DA1-9921-4280-9F9B-EF543BA7CFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
   <si>
     <t>Question</t>
   </si>
@@ -352,6 +352,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/valid-sudoku/solutions/15472/short-simple-java-using-strings/ </t>
+  </si>
+  <si>
+    <t>91. Decode Ways</t>
+  </si>
+  <si>
+    <t>The decisions come from take as double digits, or single digits. The empy string dp[0] is 1, and dp[1] should consider 0 or 1. The Iteration considers if the single digit is 0 or not, and the double digit if it is in 1-26.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/decode-ways/solutions/30451/evolve-from-recursion-to-dp/ </t>
+  </si>
+  <si>
+    <t>124. Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can only take nodes that contain both of the children as the root of a subtree. This should be compared with the max path from the parent and taking a split. We do not want to consider negative values in the sum, but they are still a part of the path. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/binary-tree-maximum-path-sum/solutions/389609/full-explanation-article-with-pseudo-code-beats-java-100-time-and-100-space-solution/ </t>
   </si>
 </sst>
 </file>
@@ -462,8 +480,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E32" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E32" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E34" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -738,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,6 +1304,40 @@
       </c>
       <c r="E32" s="3" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1320,10 +1372,13 @@
     <hyperlink ref="E30" r:id="rId28" xr:uid="{41016557-6E38-413D-BA8D-B608C90AF9C5}"/>
     <hyperlink ref="E31" r:id="rId29" xr:uid="{C763F2BE-520C-4400-ABE4-26B2B59200A8}"/>
     <hyperlink ref="E32" r:id="rId30" xr:uid="{B203F6D4-07B1-4014-A8D5-E8A72BF72AEB}"/>
+    <hyperlink ref="E33" r:id="rId31" xr:uid="{06C6FA64-9429-48FE-B883-CDBBD324179D}"/>
+    <hyperlink ref="E34" r:id="rId32" xr:uid="{93DB85FE-EAD4-4CFF-A2C9-D7FD1B8BA8C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6864DA1-9921-4280-9F9B-EF543BA7CFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5143924F-9488-4457-9E4B-FB9681736229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
   <si>
     <t>Question</t>
   </si>
@@ -370,6 +370,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/binary-tree-maximum-path-sum/solutions/389609/full-explanation-article-with-pseudo-code-beats-java-100-time-and-100-space-solution/ </t>
+  </si>
+  <si>
+    <t>79. Word Search</t>
+  </si>
+  <si>
+    <t>Recursive Backtracking - DFS. Use a Set to not revisit the same position twice in the path. Use 2d grid traversal for pathfinding, call dfs on each 4 directions, but remove the cell after (backtracking).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/word-search/solutions/279279/java-simple-with-explanation/ </t>
+  </si>
+  <si>
+    <t>322. Coin Change</t>
+  </si>
+  <si>
+    <t>dp[0] to dp[amount]. Track the min amount for each value in the range. Arrays.fill() the initial values to amount + 1, and only return at the end if the value does not equal the initial value. Start with the DFS - Backtracking approach and evolve to Top-Down Memoization, then DP Bottom-Up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/coin-change/solutions/778548/c-dp-solution-explained-100-time-100-space/ </t>
   </si>
 </sst>
 </file>
@@ -480,8 +498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E34" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E36" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E36" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -756,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,6 +1356,40 @@
       </c>
       <c r="E34" s="3" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1374,11 +1426,13 @@
     <hyperlink ref="E32" r:id="rId30" xr:uid="{B203F6D4-07B1-4014-A8D5-E8A72BF72AEB}"/>
     <hyperlink ref="E33" r:id="rId31" xr:uid="{06C6FA64-9429-48FE-B883-CDBBD324179D}"/>
     <hyperlink ref="E34" r:id="rId32" xr:uid="{93DB85FE-EAD4-4CFF-A2C9-D7FD1B8BA8C0}"/>
+    <hyperlink ref="E35" r:id="rId33" xr:uid="{F4B09142-2699-43D1-A887-89B0BC1287D2}"/>
+    <hyperlink ref="E36" r:id="rId34" xr:uid="{F5DB9C5F-4C3B-42C4-AAE1-6C660182A564}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
   <tableParts count="1">
-    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5143924F-9488-4457-9E4B-FB9681736229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C35DE5-66FF-4B28-9BBE-04585F80ABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/coin-change/solutions/778548/c-dp-solution-explained-100-time-100-space/ </t>
+  </si>
+  <si>
+    <t>846. Hand of Straights</t>
+  </si>
+  <si>
+    <t>First check if the hand is divisible by group size. Create a MinHeap to store counts, and decrement the count when we use a val in a set. We are greedy in the sense that we start with the minimum value, so it can only have 1 set.  If we pop a value that is not the minimum, we return false.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/hand-of-straights/solutions/136200/simple-java-solution-using-priority-queue/ </t>
   </si>
 </sst>
 </file>
@@ -498,8 +507,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E36" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E36" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E37" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E37" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -774,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,6 +1399,23 @@
       </c>
       <c r="E36" s="3" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1428,11 +1454,12 @@
     <hyperlink ref="E34" r:id="rId32" xr:uid="{93DB85FE-EAD4-4CFF-A2C9-D7FD1B8BA8C0}"/>
     <hyperlink ref="E35" r:id="rId33" xr:uid="{F4B09142-2699-43D1-A887-89B0BC1287D2}"/>
     <hyperlink ref="E36" r:id="rId34" xr:uid="{F5DB9C5F-4C3B-42C4-AAE1-6C660182A564}"/>
+    <hyperlink ref="E37" r:id="rId35" xr:uid="{6E14CE38-B1F5-4776-B82A-ED6CCFDA120C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
   <tableParts count="1">
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C35DE5-66FF-4B28-9BBE-04585F80ABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2896B04-16D0-410A-865B-C70CD97EFC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="127">
   <si>
     <t>Question</t>
   </si>
@@ -397,6 +397,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/hand-of-straights/solutions/136200/simple-java-solution-using-priority-queue/ </t>
+  </si>
+  <si>
+    <t>128. Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Visualize as a number line, Iterate the array, use a Set to check for left neighbors. If no left neighbor it is the start of a sequence. Check the right neighbor to make the sequence longer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/longest-consecutive-sequence/solutions/41055/my-really-simple-java-o-n-solution-accepted/ </t>
   </si>
 </sst>
 </file>
@@ -507,8 +516,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E37" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E37" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E38" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E38" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -783,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,6 +1425,23 @@
       </c>
       <c r="E37" s="3" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1455,11 +1481,12 @@
     <hyperlink ref="E35" r:id="rId33" xr:uid="{F4B09142-2699-43D1-A887-89B0BC1287D2}"/>
     <hyperlink ref="E36" r:id="rId34" xr:uid="{F5DB9C5F-4C3B-42C4-AAE1-6C660182A564}"/>
     <hyperlink ref="E37" r:id="rId35" xr:uid="{6E14CE38-B1F5-4776-B82A-ED6CCFDA120C}"/>
+    <hyperlink ref="E38" r:id="rId36" xr:uid="{EB46DF95-97B1-4579-B3D2-D0FF63C9A600}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2896B04-16D0-410A-865B-C70CD97EFC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF293CF-4380-4645-B13C-0D705AF17213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
   <si>
     <t>Question</t>
   </si>
@@ -406,6 +406,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/longest-consecutive-sequence/solutions/41055/my-really-simple-java-o-n-solution-accepted/ </t>
+  </si>
+  <si>
+    <t>297. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/serialize-and-deserialize-binary-tree/solutions/281714/clean-java-solution/ </t>
+  </si>
+  <si>
+    <t>DFS - Preorder, add Nulls to the String to signal the tree structure. We recursively consider the next 2 neighbors until both are null, that is the base case and a leaf node. Delimit on , during iteration. The optimal and most elegant solution is serialize using DFS and deserialize using BFS.</t>
   </si>
 </sst>
 </file>
@@ -516,8 +525,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E38" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E38" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E39" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E39" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -792,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,6 +1451,23 @@
       </c>
       <c r="E38" s="3" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1482,11 +1508,12 @@
     <hyperlink ref="E36" r:id="rId34" xr:uid="{F5DB9C5F-4C3B-42C4-AAE1-6C660182A564}"/>
     <hyperlink ref="E37" r:id="rId35" xr:uid="{6E14CE38-B1F5-4776-B82A-ED6CCFDA120C}"/>
     <hyperlink ref="E38" r:id="rId36" xr:uid="{EB46DF95-97B1-4579-B3D2-D0FF63C9A600}"/>
+    <hyperlink ref="E39" r:id="rId37" xr:uid="{6DE3738C-1BEC-431F-A250-55A93A433423}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF293CF-4380-4645-B13C-0D705AF17213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0713B0F6-A202-45B1-85C6-6B04E8AF1BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="137">
   <si>
     <t>Question</t>
   </si>
@@ -415,6 +415,27 @@
   </si>
   <si>
     <t>DFS - Preorder, add Nulls to the String to signal the tree structure. We recursively consider the next 2 neighbors until both are null, that is the base case and a leaf node. Delimit on , during iteration. The optimal and most elegant solution is serialize using DFS and deserialize using BFS.</t>
+  </si>
+  <si>
+    <t>739. Daily Temperatures</t>
+  </si>
+  <si>
+    <t>A Monotonic Stack question. Store "slow" pointer values in stack and search them when "fast" pointer fails to meet a condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/daily-temperatures/solutions/109832/java-easy-ac-solution-with-stack/ </t>
+  </si>
+  <si>
+    <t>567. Permutation in String</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Maintain 2 arrays (or hashmaps) for char frequencies, 1 of the target, and 1 of the window. Update the frequencies of the window and check if they match at each iteration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/permutation-in-string/solutions/102588/java-solution-sliding-window/ </t>
   </si>
 </sst>
 </file>
@@ -525,8 +546,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E39" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E39" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E41" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E41" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -801,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,6 +1489,40 @@
       </c>
       <c r="E39" s="3" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1509,11 +1564,13 @@
     <hyperlink ref="E37" r:id="rId35" xr:uid="{6E14CE38-B1F5-4776-B82A-ED6CCFDA120C}"/>
     <hyperlink ref="E38" r:id="rId36" xr:uid="{EB46DF95-97B1-4579-B3D2-D0FF63C9A600}"/>
     <hyperlink ref="E39" r:id="rId37" xr:uid="{6DE3738C-1BEC-431F-A250-55A93A433423}"/>
+    <hyperlink ref="E40" r:id="rId38" xr:uid="{674D149F-85BE-4B5B-AD24-48DC3B95630D}"/>
+    <hyperlink ref="E41" r:id="rId39" xr:uid="{44AAC642-9E4F-4C66-8F74-2C439A2DA74A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
   <tableParts count="1">
-    <tablePart r:id="rId39"/>
+    <tablePart r:id="rId41"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0713B0F6-A202-45B1-85C6-6B04E8AF1BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3445BC3F-A289-42ED-B756-02A0DAFC780D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="140">
   <si>
     <t>Question</t>
   </si>
@@ -436,6 +436,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/permutation-in-string/solutions/102588/java-solution-sliding-window/ </t>
+  </si>
+  <si>
+    <t>853. Car Fleet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/car-fleet/solutions/3897504/monotonic-stack/ </t>
+  </si>
+  <si>
+    <t>Combine the coordinates into a 2D array, sort the array using lambda exp: Arrays.sort(combine, (a,b) -&gt; Integer.compare(a[0], b[0]), sort by the position. Search the array right to left using a stack to only keep the slower cars on the right, remove all the faster cars on the left. Return the stack size. This is the Monotonic Stack formula.</t>
   </si>
 </sst>
 </file>
@@ -546,8 +555,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E41" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E41" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E42" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E42" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -822,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,6 +1532,23 @@
       </c>
       <c r="E41" s="3" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1566,11 +1592,12 @@
     <hyperlink ref="E39" r:id="rId37" xr:uid="{6DE3738C-1BEC-431F-A250-55A93A433423}"/>
     <hyperlink ref="E40" r:id="rId38" xr:uid="{674D149F-85BE-4B5B-AD24-48DC3B95630D}"/>
     <hyperlink ref="E41" r:id="rId39" xr:uid="{44AAC642-9E4F-4C66-8F74-2C439A2DA74A}"/>
+    <hyperlink ref="E42" r:id="rId40" xr:uid="{E17AA11A-748D-40B3-B431-DB38E13B1DCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
   <tableParts count="1">
-    <tablePart r:id="rId41"/>
+    <tablePart r:id="rId42"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3445BC3F-A289-42ED-B756-02A0DAFC780D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64217F0-D58C-4D1F-B41F-EA29D0476AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="143">
   <si>
     <t>Question</t>
   </si>
@@ -445,6 +445,15 @@
   </si>
   <si>
     <t>Combine the coordinates into a 2D array, sort the array using lambda exp: Arrays.sort(combine, (a,b) -&gt; Integer.compare(a[0], b[0]), sort by the position. Search the array right to left using a stack to only keep the slower cars on the right, remove all the faster cars on the left. Return the stack size. This is the Monotonic Stack formula.</t>
+  </si>
+  <si>
+    <t>981. Time Base Key-Value Store</t>
+  </si>
+  <si>
+    <t>Hashmap with List of Pair values. Pair is a default class in java. The list is already sorted by time, so use binary search for the time value or less. Use int mid = start + (end - start + 1) / 2; for the binary search, and start = mid;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/time-based-key-value-store/solutions/2336966/java-map-binarysearch-easy-to-implement/ </t>
   </si>
 </sst>
 </file>
@@ -555,8 +564,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E42" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E42" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E43" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E43" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -831,9 +840,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -1549,6 +1558,23 @@
       </c>
       <c r="E42" s="3" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1593,11 +1619,12 @@
     <hyperlink ref="E40" r:id="rId38" xr:uid="{674D149F-85BE-4B5B-AD24-48DC3B95630D}"/>
     <hyperlink ref="E41" r:id="rId39" xr:uid="{44AAC642-9E4F-4C66-8F74-2C439A2DA74A}"/>
     <hyperlink ref="E42" r:id="rId40" xr:uid="{E17AA11A-748D-40B3-B431-DB38E13B1DCC}"/>
+    <hyperlink ref="E43" r:id="rId41" xr:uid="{00748F2F-457E-4462-BA0D-BC07AE6E5C09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
   <tableParts count="1">
-    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId43"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64217F0-D58C-4D1F-B41F-EA29D0476AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4F71F-533E-4B24-9047-D9B7F0C65C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
   <si>
     <t>Question</t>
   </si>
@@ -454,6 +454,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/time-based-key-value-store/solutions/2336966/java-map-binarysearch-easy-to-implement/ </t>
+  </si>
+  <si>
+    <t>84. Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/largest-rectangle-in-histogram/solutions/28900/short-and-clean-o-n-stack-based-java-solution/ </t>
+  </si>
+  <si>
+    <t>Monotonic Stack. We look for the 1 max rectangle, not total area. Maintain left, right, height limits. Extend the heights to the right if they are increasing, until encountering  a smaller height, then pop and compute the area until reaching a previous height which was equal or less. The max area is b * h, or i - index * h, each bar's width is 1. Compute the remaining in the stack.</t>
   </si>
 </sst>
 </file>
@@ -564,8 +573,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E43" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E43" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E44" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E44" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -840,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,6 +1584,23 @@
       </c>
       <c r="E43" s="3" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1620,11 +1646,12 @@
     <hyperlink ref="E41" r:id="rId39" xr:uid="{44AAC642-9E4F-4C66-8F74-2C439A2DA74A}"/>
     <hyperlink ref="E42" r:id="rId40" xr:uid="{E17AA11A-748D-40B3-B431-DB38E13B1DCC}"/>
     <hyperlink ref="E43" r:id="rId41" xr:uid="{00748F2F-457E-4462-BA0D-BC07AE6E5C09}"/>
+    <hyperlink ref="E44" r:id="rId42" xr:uid="{E5A64377-0EF2-47B4-BE89-A94A70662E5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
   <tableParts count="1">
-    <tablePart r:id="rId43"/>
+    <tablePart r:id="rId44"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4F71F-533E-4B24-9047-D9B7F0C65C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE51CF-39AD-4112-BF00-9BF5910DF502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="149">
   <si>
     <t>Question</t>
   </si>
@@ -463,6 +463,15 @@
   </si>
   <si>
     <t>Monotonic Stack. We look for the 1 max rectangle, not total area. Maintain left, right, height limits. Extend the heights to the right if they are increasing, until encountering  a smaller height, then pop and compute the area until reaching a previous height which was equal or less. The max area is b * h, or i - index * h, each bar's width is 1. Compute the remaining in the stack.</t>
+  </si>
+  <si>
+    <t>4. Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/median-of-two-sorted-arrays/solutions/4070500/99-journey-from-brute-force-to-most-optimized-three-approaches-easy-to-understand/ </t>
+  </si>
+  <si>
+    <t>Partition by running binary search on the smaller list. Half of the total of both gives us the size of the left partition. The max of the left partition is approx. the median. Take the max of both left partitions, and the min of the right partitions, then take (max(L1, L2) + min(R1, R2))/2 to get the median. i = (l + r), j = half - i. Set the left and right boundaries of both lists using the binary search pointers, handle the out of bounds with infinity. If the partition is odd: return min(A_right, B_right), if even: return ((max(A_left, B_left) + min(A_right, B_right))/2. If the median found was incorrect, A_left &gt; B_right: r = i - 1, else: l - i + 1.</t>
   </si>
 </sst>
 </file>
@@ -573,8 +582,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E44" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E44" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E45" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E45" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -849,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,6 +1610,23 @@
       </c>
       <c r="E44" s="3" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1647,11 +1673,12 @@
     <hyperlink ref="E42" r:id="rId40" xr:uid="{E17AA11A-748D-40B3-B431-DB38E13B1DCC}"/>
     <hyperlink ref="E43" r:id="rId41" xr:uid="{00748F2F-457E-4462-BA0D-BC07AE6E5C09}"/>
     <hyperlink ref="E44" r:id="rId42" xr:uid="{E5A64377-0EF2-47B4-BE89-A94A70662E5D}"/>
+    <hyperlink ref="E45" r:id="rId43" xr:uid="{6E58246C-914F-4B4F-863E-C0072B3487E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
   <tableParts count="1">
-    <tablePart r:id="rId44"/>
+    <tablePart r:id="rId45"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE51CF-39AD-4112-BF00-9BF5910DF502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84446ED9-659F-4017-AA2C-4AE9BE797260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="152">
   <si>
     <t>Question</t>
   </si>
@@ -472,6 +472,15 @@
   </si>
   <si>
     <t>Partition by running binary search on the smaller list. Half of the total of both gives us the size of the left partition. The max of the left partition is approx. the median. Take the max of both left partitions, and the min of the right partitions, then take (max(L1, L2) + min(R1, R2))/2 to get the median. i = (l + r), j = half - i. Set the left and right boundaries of both lists using the binary search pointers, handle the out of bounds with infinity. If the partition is odd: return min(A_right, B_right), if even: return ((max(A_left, B_left) + min(A_right, B_right))/2. If the median found was incorrect, A_left &gt; B_right: r = i - 1, else: l - i + 1.</t>
+  </si>
+  <si>
+    <t>76. Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Straightforward Sliding Window Design. Maintain a window and target char frequency count hash map each, then compare at each window operation. Maintain and update a min length where window freqs = target freqs. Use s.subString(subStr, subStr + minLen) to return the substring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/minimum-window-substring/solutions/26808/here-is-a-10-line-template-that-can-solve-most-substring-problems/ </t>
   </si>
 </sst>
 </file>
@@ -582,8 +591,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E45" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E45" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E46" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E46" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -858,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,6 +1636,23 @@
       </c>
       <c r="E45" s="3" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1674,11 +1700,12 @@
     <hyperlink ref="E43" r:id="rId41" xr:uid="{00748F2F-457E-4462-BA0D-BC07AE6E5C09}"/>
     <hyperlink ref="E44" r:id="rId42" xr:uid="{E5A64377-0EF2-47B4-BE89-A94A70662E5D}"/>
     <hyperlink ref="E45" r:id="rId43" xr:uid="{6E58246C-914F-4B4F-863E-C0072B3487E5}"/>
+    <hyperlink ref="E46" r:id="rId44" xr:uid="{7E9CD3CA-948E-4A07-898D-667F3BBD3CBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
   <tableParts count="1">
-    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId46"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84446ED9-659F-4017-AA2C-4AE9BE797260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606DC494-1162-4FA1-AE18-B1CCD0188711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
   <si>
     <t>Question</t>
   </si>
@@ -481,6 +492,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/minimum-window-substring/solutions/26808/here-is-a-10-line-template-that-can-solve-most-substring-problems/ </t>
+  </si>
+  <si>
+    <t>239. Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straightforward Sliding Window. Use a (Monotonically Decreasing) Deque to maintain the max in the window. Pop all elements in the deque less than each new element encountered, as they would never be considered the maximum. The condition of the window, pop all smaller values than r in q before appending, and remove the left val from window. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/sliding-window-maximum/solutions/65884/java-o-n-solution-using-deque-with-explanation/ </t>
   </si>
 </sst>
 </file>
@@ -591,8 +611,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E46" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E46" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E47" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E47" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -867,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,6 +1673,23 @@
       </c>
       <c r="E46" s="3" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1701,11 +1738,12 @@
     <hyperlink ref="E44" r:id="rId42" xr:uid="{E5A64377-0EF2-47B4-BE89-A94A70662E5D}"/>
     <hyperlink ref="E45" r:id="rId43" xr:uid="{6E58246C-914F-4B4F-863E-C0072B3487E5}"/>
     <hyperlink ref="E46" r:id="rId44" xr:uid="{7E9CD3CA-948E-4A07-898D-667F3BBD3CBA}"/>
+    <hyperlink ref="E47" r:id="rId45" xr:uid="{9C62634C-49C8-4BF0-A8C6-1261A4CF4A36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId45"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
   <tableParts count="1">
-    <tablePart r:id="rId46"/>
+    <tablePart r:id="rId47"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606DC494-1162-4FA1-AE18-B1CCD0188711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE868E77-1384-4C36-A507-35BC30B319D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="158">
   <si>
     <t>Question</t>
   </si>
@@ -501,6 +501,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/sliding-window-maximum/solutions/65884/java-o-n-solution-using-deque-with-explanation/ </t>
+  </si>
+  <si>
+    <t>131. Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/palindrome-partitioning/solutions/182307/java-backtracking-template-general-approach/ </t>
+  </si>
+  <si>
+    <t>Straightforward DFS. Use the general template with helper function and an isPalindrome function. Remember, base case, choose, explore, unchoose.</t>
   </si>
 </sst>
 </file>
@@ -611,8 +620,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E47" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E47" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E48" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E48" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -887,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,6 +1699,23 @@
       </c>
       <c r="E47" s="3" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1739,11 +1765,12 @@
     <hyperlink ref="E45" r:id="rId43" xr:uid="{6E58246C-914F-4B4F-863E-C0072B3487E5}"/>
     <hyperlink ref="E46" r:id="rId44" xr:uid="{7E9CD3CA-948E-4A07-898D-667F3BBD3CBA}"/>
     <hyperlink ref="E47" r:id="rId45" xr:uid="{9C62634C-49C8-4BF0-A8C6-1261A4CF4A36}"/>
+    <hyperlink ref="E48" r:id="rId46" xr:uid="{D7AC809E-CCB7-418D-BA52-23C3162B3362}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
   <tableParts count="1">
-    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId48"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE868E77-1384-4C36-A507-35BC30B319D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E65EEE-B20A-49E0-9E34-A513361B84C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
   <si>
     <t>Question</t>
   </si>
@@ -510,6 +510,15 @@
   </si>
   <si>
     <t>Straightforward DFS. Use the general template with helper function and an isPalindrome function. Remember, base case, choose, explore, unchoose.</t>
+  </si>
+  <si>
+    <t>217. Contains Duplicate</t>
+  </si>
+  <si>
+    <t>The two "brute force" solutions are hash map, and sorting then checking previous. The sorting method has O(nlogn) time so it is not optimal. The HashMap is O(n) so it is preferred, but HashSet is optimal, as it only allows unique keys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/contains-duplicate/solutions/3163705/java-best-solution-3-ways/ </t>
   </si>
 </sst>
 </file>
@@ -620,8 +629,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E48" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E48" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E49" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E49" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -896,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,6 +1725,23 @@
       </c>
       <c r="E48" s="3" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1766,11 +1792,12 @@
     <hyperlink ref="E46" r:id="rId44" xr:uid="{7E9CD3CA-948E-4A07-898D-667F3BBD3CBA}"/>
     <hyperlink ref="E47" r:id="rId45" xr:uid="{9C62634C-49C8-4BF0-A8C6-1261A4CF4A36}"/>
     <hyperlink ref="E48" r:id="rId46" xr:uid="{D7AC809E-CCB7-418D-BA52-23C3162B3362}"/>
+    <hyperlink ref="E49" r:id="rId47" xr:uid="{1A446F7D-D70C-486F-89AA-30B967E7DA67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
   <tableParts count="1">
-    <tablePart r:id="rId48"/>
+    <tablePart r:id="rId49"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E65EEE-B20A-49E0-9E34-A513361B84C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62071586-7334-40AF-BB25-3E6F318CD1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="164">
   <si>
     <t>Question</t>
   </si>
@@ -519,6 +519,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/contains-duplicate/solutions/3163705/java-best-solution-3-ways/ </t>
+  </si>
+  <si>
+    <t>17. Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/letter-combinations-of-a-phone-number/solutions/8109/my-recursive-solution-using-java/ </t>
+  </si>
+  <si>
+    <t>Know State carrying with Recursion. Good straightforward backtracking string problem. Visualize the combinations as a decision tree (n 4^n), as 4 choices per character. Remember Map.of(). Create a hash map for digit to strings. Base case in backtracking function is when the current string len == digits len, res.append(curStr) then return. Then call recursively for c : digit.toCharArray(): backtrack(digits, ans, cur + c, index + 1). We are implicitly choosing with the backtrack() call. Remember to conver the digits to character array.</t>
   </si>
 </sst>
 </file>
@@ -629,8 +638,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E49" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E49" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E50" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E50" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -905,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,6 +1751,23 @@
       </c>
       <c r="E49" s="3" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1793,11 +1819,12 @@
     <hyperlink ref="E47" r:id="rId45" xr:uid="{9C62634C-49C8-4BF0-A8C6-1261A4CF4A36}"/>
     <hyperlink ref="E48" r:id="rId46" xr:uid="{D7AC809E-CCB7-418D-BA52-23C3162B3362}"/>
     <hyperlink ref="E49" r:id="rId47" xr:uid="{1A446F7D-D70C-486F-89AA-30B967E7DA67}"/>
+    <hyperlink ref="E50" r:id="rId48" xr:uid="{1C57C5BB-63A9-419F-A629-5E4E6AADCED8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
   <tableParts count="1">
-    <tablePart r:id="rId49"/>
+    <tablePart r:id="rId50"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62071586-7334-40AF-BB25-3E6F318CD1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B25ECA3-5DD8-4D22-81EE-D2F68F65CF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
   <si>
     <t>Question</t>
   </si>
@@ -528,6 +528,15 @@
   </si>
   <si>
     <t>Know State carrying with Recursion. Good straightforward backtracking string problem. Visualize the combinations as a decision tree (n 4^n), as 4 choices per character. Remember Map.of(). Create a hash map for digit to strings. Base case in backtracking function is when the current string len == digits len, res.append(curStr) then return. Then call recursively for c : digit.toCharArray(): backtrack(digits, ans, cur + c, index + 1). We are implicitly choosing with the backtrack() call. Remember to conver the digits to character array.</t>
+  </si>
+  <si>
+    <t>1. Two Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/two-sum/solutions/3619262/3-method-s-c-java-python-beginner-friendly/ </t>
+  </si>
+  <si>
+    <t>HashMap 1 pass for the diff to target (complement). Remember containsKey. For each I, get diff = target - nums[i]. Map.containsKey(diff) else map.put(nums[i], i).</t>
   </si>
 </sst>
 </file>
@@ -638,8 +647,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E50" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E50" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E51" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E51" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -914,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D56" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,6 +1777,23 @@
       </c>
       <c r="E50" s="3" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1820,11 +1846,12 @@
     <hyperlink ref="E48" r:id="rId46" xr:uid="{D7AC809E-CCB7-418D-BA52-23C3162B3362}"/>
     <hyperlink ref="E49" r:id="rId47" xr:uid="{1A446F7D-D70C-486F-89AA-30B967E7DA67}"/>
     <hyperlink ref="E50" r:id="rId48" xr:uid="{1C57C5BB-63A9-419F-A629-5E4E6AADCED8}"/>
+    <hyperlink ref="E51" r:id="rId49" xr:uid="{EECC962A-CA87-4FB7-B378-2EA535D0642C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
   <tableParts count="1">
-    <tablePart r:id="rId50"/>
+    <tablePart r:id="rId51"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B25ECA3-5DD8-4D22-81EE-D2F68F65CF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26746A13-73A8-4870-BBCD-2A8247AD12EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="170">
   <si>
     <t>Question</t>
   </si>
@@ -537,6 +537,15 @@
   </si>
   <si>
     <t>HashMap 1 pass for the diff to target (complement). Remember containsKey. For each I, get diff = target - nums[i]. Map.containsKey(diff) else map.put(nums[i], i).</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/valid-palindrome/solutions/3165353/beats-96-9-well-explained-code-in-java/ </t>
+  </si>
+  <si>
+    <t>Remember s = s.toLowerCase(). Alphanumeric is a-z and 0-9 and can be computed with (c &gt;= 'a' &amp;&amp; c &lt;= 'z') || (c &gt;= '0' &amp;&amp; c &lt;= '9'). Make a helper function. In the while loop to skip over blank characters, use continue; There is also the Character.isLetterOrDigit() if you can remember it. Watch the while loop conditions.</t>
   </si>
 </sst>
 </file>
@@ -647,8 +656,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E51" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E51" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E52" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E52" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -923,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D56" sqref="D55:D56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,6 +1803,23 @@
       </c>
       <c r="E51" s="3" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1847,11 +1873,12 @@
     <hyperlink ref="E49" r:id="rId47" xr:uid="{1A446F7D-D70C-486F-89AA-30B967E7DA67}"/>
     <hyperlink ref="E50" r:id="rId48" xr:uid="{1C57C5BB-63A9-419F-A629-5E4E6AADCED8}"/>
     <hyperlink ref="E51" r:id="rId49" xr:uid="{EECC962A-CA87-4FB7-B378-2EA535D0642C}"/>
+    <hyperlink ref="E52" r:id="rId50" xr:uid="{D0508FF0-7809-4FB6-98A6-4FE2AF1F555F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
   <tableParts count="1">
-    <tablePart r:id="rId51"/>
+    <tablePart r:id="rId52"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26746A13-73A8-4870-BBCD-2A8247AD12EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3042EC5-9D95-454F-9CBA-0BED79EDC01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="176">
   <si>
     <t>Question</t>
   </si>
@@ -546,6 +546,24 @@
   </si>
   <si>
     <t>Remember s = s.toLowerCase(). Alphanumeric is a-z and 0-9 and can be computed with (c &gt;= 'a' &amp;&amp; c &lt;= 'z') || (c &gt;= '0' &amp;&amp; c &lt;= '9'). Make a helper function. In the while loop to skip over blank characters, use continue; There is also the Character.isLetterOrDigit() if you can remember it. Watch the while loop conditions.</t>
+  </si>
+  <si>
+    <t>51. N-Queens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/n-queens/solutions/3754625/easy-java-solution-recursion-backtracking-detailed-solution-easy-to-understand-notes/ </t>
+  </si>
+  <si>
+    <t>We can iterate each row and implicitly store the row, but we need to check if valid for columns, positive and negative diagonals. At each step in the decision tree, we check the conditions based on the Set. As the rows and columns change by 1 at each step, the negative diagonal (r-c) stays constant. For the positive diagonal (r+c) stays constant. It is best to have the stringbuilding operation in its own function, and checking ifSafe() with cols, positive and negative diagonals in its own function.</t>
+  </si>
+  <si>
+    <t>226. Invert  Binary Tree</t>
+  </si>
+  <si>
+    <t>Remember that when we work with Trees and other Objects in Java, they are typically mutable. We pass them by references (by value), so it allows us to modify the original object. Use standard pre-order traversal DFS, with base case and recursive step, but at the current node, swap the left and right using the swap algorithm. Then return the root.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/invert-binary-tree/solutions/2463600/easy-100-fully-explained-java-c-python-js-c-python3-recursive-iterative/ </t>
   </si>
 </sst>
 </file>
@@ -656,8 +674,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E52" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E52" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E54" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E54" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -932,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,6 +1838,40 @@
       </c>
       <c r="E52" s="3" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1874,11 +1926,13 @@
     <hyperlink ref="E50" r:id="rId48" xr:uid="{1C57C5BB-63A9-419F-A629-5E4E6AADCED8}"/>
     <hyperlink ref="E51" r:id="rId49" xr:uid="{EECC962A-CA87-4FB7-B378-2EA535D0642C}"/>
     <hyperlink ref="E52" r:id="rId50" xr:uid="{D0508FF0-7809-4FB6-98A6-4FE2AF1F555F}"/>
+    <hyperlink ref="E53" r:id="rId51" xr:uid="{980F1FFF-07B5-4F09-AC2B-9FF6A499749D}"/>
+    <hyperlink ref="E54" r:id="rId52" xr:uid="{66E8B9E3-36FC-49AE-9A88-28B9D30F11C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId53"/>
   <tableParts count="1">
-    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId54"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3042EC5-9D95-454F-9CBA-0BED79EDC01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471267C4-A4EA-444D-8E73-C1F93F945BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="179">
   <si>
     <t>Question</t>
   </si>
@@ -564,6 +564,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/invert-binary-tree/solutions/2463600/easy-100-fully-explained-java-c-python-js-c-python3-recursive-iterative/ </t>
+  </si>
+  <si>
+    <t>152. Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>The pattern is that all positives will always increase, while negatives will increase every 2nd element. For negatives, we need to track the minimum and maximum, as the signs are alternating. A large negative value can turn a minimum into a maximum value. We only need to maintain 2 values, not the dp array. We need to at each step, compare temp = max * n, and then max and min of (n, temp, min*n), then the res will be the max of (res, max).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-product-subarray/solutions/48230/possibly-simplest-solution-with-o-n-time-complexity/ </t>
   </si>
 </sst>
 </file>
@@ -674,8 +683,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E54" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E54" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E55" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E55" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -950,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,6 +1881,23 @@
       </c>
       <c r="E54" s="3" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1928,11 +1954,12 @@
     <hyperlink ref="E52" r:id="rId50" xr:uid="{D0508FF0-7809-4FB6-98A6-4FE2AF1F555F}"/>
     <hyperlink ref="E53" r:id="rId51" xr:uid="{980F1FFF-07B5-4F09-AC2B-9FF6A499749D}"/>
     <hyperlink ref="E54" r:id="rId52" xr:uid="{66E8B9E3-36FC-49AE-9A88-28B9D30F11C2}"/>
+    <hyperlink ref="E55" r:id="rId53" xr:uid="{A089EB77-9A2B-4983-9E91-89936EF13180}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
   <tableParts count="1">
-    <tablePart r:id="rId54"/>
+    <tablePart r:id="rId55"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471267C4-A4EA-444D-8E73-C1F93F945BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8212FB-4885-4C80-9916-D783CC62BDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="185">
   <si>
     <t>Question</t>
   </si>
@@ -80,9 +80,6 @@
     <t>130. Surrounded Regions</t>
   </si>
   <si>
-    <t>Graph DFS</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/surrounded-regions/solutions/691675/c-beginner-friendly-boundary-dfs-inplace/</t>
   </si>
   <si>
@@ -573,6 +570,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/maximum-product-subarray/solutions/48230/possibly-simplest-solution-with-o-n-time-complexity/ </t>
+  </si>
+  <si>
+    <t>994. Rotting Oranges</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Multi-source BFS. Can't use DFS as there may be multiple sources at once. Initialize the queue with each source. Keep track of total fresh oranges in the beginning, and that distance will be the condition of the return.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/rotting-oranges/solutions/238681/java-clean-bfs-solution-with-comments/ </t>
+  </si>
+  <si>
+    <t>206. Reverse Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/reverse-linked-list/solutions/2682085/java-0ms-100-easy-understanding/ </t>
+  </si>
+  <si>
+    <t>This is a linked list swap formula that is commonly used. You need 3 pointers, curr, prev, and next. Make sure to save the next = curr.next before swapping curr.next to prev.</t>
   </si>
 </sst>
 </file>
@@ -683,8 +701,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E55" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E55" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E57" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E57" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -959,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,52 +1059,52 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1095,66 +1113,66 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -1163,83 +1181,83 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
@@ -1248,117 +1266,117 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
@@ -1367,185 +1385,185 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>84</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
@@ -1554,134 +1572,134 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>134</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
@@ -1690,83 +1708,83 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
@@ -1775,32 +1793,32 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>6</v>
@@ -1809,95 +1827,129 @@
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
         <v>173</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
         <v>176</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E55" s="3" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>178</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1955,11 +2007,13 @@
     <hyperlink ref="E53" r:id="rId51" xr:uid="{980F1FFF-07B5-4F09-AC2B-9FF6A499749D}"/>
     <hyperlink ref="E54" r:id="rId52" xr:uid="{66E8B9E3-36FC-49AE-9A88-28B9D30F11C2}"/>
     <hyperlink ref="E55" r:id="rId53" xr:uid="{A089EB77-9A2B-4983-9E91-89936EF13180}"/>
+    <hyperlink ref="E56" r:id="rId54" xr:uid="{0EEC6799-8CC9-4745-9225-473E00052B9A}"/>
+    <hyperlink ref="E57" r:id="rId55" xr:uid="{50BA5926-8319-4245-9A6E-25BBC7CE33ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId54"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
   <tableParts count="1">
-    <tablePart r:id="rId55"/>
+    <tablePart r:id="rId57"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8212FB-4885-4C80-9916-D783CC62BDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CE46C4-71E3-456A-A9F8-48D16A58C43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="188">
   <si>
     <t>Question</t>
   </si>
@@ -591,6 +591,15 @@
   </si>
   <si>
     <t>This is a linked list swap formula that is commonly used. You need 3 pointers, curr, prev, and next. Make sure to save the next = curr.next before swapping curr.next to prev.</t>
+  </si>
+  <si>
+    <t>1899. Merge Triplets to Form Target Triplet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/merge-triplets-to-form-target-triplet/solutions/1268574/java-one-pass-clean-easy/ </t>
+  </si>
+  <si>
+    <t>We do not need to work with the given operation. Maintain greedy array and update it as the max between curr values and the triplet i's values. The for loop should skip over any triplets that contain values greater than the target's with continue. At the end, if the greedy array's values equal the target's then return true.</t>
   </si>
 </sst>
 </file>
@@ -701,8 +710,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E57" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E57" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E58" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E58" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -977,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,6 +1959,23 @@
       </c>
       <c r="E57" s="3" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2009,11 +2035,12 @@
     <hyperlink ref="E55" r:id="rId53" xr:uid="{A089EB77-9A2B-4983-9E91-89936EF13180}"/>
     <hyperlink ref="E56" r:id="rId54" xr:uid="{0EEC6799-8CC9-4745-9225-473E00052B9A}"/>
     <hyperlink ref="E57" r:id="rId55" xr:uid="{50BA5926-8319-4245-9A6E-25BBC7CE33ED}"/>
+    <hyperlink ref="E58" r:id="rId56" xr:uid="{C0D80501-A2FD-471F-AAFF-977CE8C94A4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId56"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
   <tableParts count="1">
-    <tablePart r:id="rId57"/>
+    <tablePart r:id="rId58"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CE46C4-71E3-456A-A9F8-48D16A58C43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411AF27-A2DC-466C-976B-0A9624FD9A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="191">
   <si>
     <t>Question</t>
   </si>
@@ -600,6 +600,15 @@
   </si>
   <si>
     <t>We do not need to work with the given operation. Maintain greedy array and update it as the max between curr values and the triplet i's values. The for loop should skip over any triplets that contain values greater than the target's with continue. At the end, if the greedy array's values equal the target's then return true.</t>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/course-schedule/solutions/58669/concise-java-solutions-based-on-bfs-and-dfs-with-explanation/ </t>
+  </si>
+  <si>
+    <t>Need to deal with infinite cycles and return false maintain a visited set to immediately return false. Solve with DFS and adjacency map as a hashmap. Each course will have its key as its prerequisites. The base cases are nodes (courses) with no prerequisites. Remove prerequisites if we already know the prerequisites are completed. It can also be solved with Topological sort BFS.</t>
   </si>
 </sst>
 </file>
@@ -710,8 +719,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E58" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E58" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E59" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E59" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -986,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,6 +1985,23 @@
       </c>
       <c r="E58" s="3" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2036,11 +2062,12 @@
     <hyperlink ref="E56" r:id="rId54" xr:uid="{0EEC6799-8CC9-4745-9225-473E00052B9A}"/>
     <hyperlink ref="E57" r:id="rId55" xr:uid="{50BA5926-8319-4245-9A6E-25BBC7CE33ED}"/>
     <hyperlink ref="E58" r:id="rId56" xr:uid="{C0D80501-A2FD-471F-AAFF-977CE8C94A4C}"/>
+    <hyperlink ref="E59" r:id="rId57" xr:uid="{B3B3CF1A-1BA7-44A8-B0AE-649F02C2C71D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId58"/>
   <tableParts count="1">
-    <tablePart r:id="rId58"/>
+    <tablePart r:id="rId59"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411AF27-A2DC-466C-976B-0A9624FD9A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1496D00E-E85D-4DB5-BB08-95BE37F9E82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="194">
   <si>
     <t>Question</t>
   </si>
@@ -609,6 +609,15 @@
   </si>
   <si>
     <t>Need to deal with infinite cycles and return false maintain a visited set to immediately return false. Solve with DFS and adjacency map as a hashmap. Each course will have its key as its prerequisites. The base cases are nodes (courses) with no prerequisites. Remove prerequisites if we already know the prerequisites are completed. It can also be solved with Topological sort BFS.</t>
+  </si>
+  <si>
+    <t>20. Valid Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/valid-parentheses/solutions/3399077/easy-solutions-in-java-python-and-c-look-at-once-with-exaplanation/ </t>
+  </si>
+  <si>
+    <t>The wording is confusing. Read the question carefully. The open brackets can only be (, [, or {, and they need to be closed in the correct order. E.g. ([)] is false. Use a stack, iterate the string, and consider each char. Only push the open brackets in the for loop, and compare the char (if it is a closing bracket), with the top of the stack to see if they complement. Use method of exhaustion, and only return true if the stack is empty at the end.</t>
   </si>
 </sst>
 </file>
@@ -719,8 +728,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E59" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E59" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E60" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E60" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -995,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,6 +2011,23 @@
       </c>
       <c r="E59" s="3" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2063,11 +2089,12 @@
     <hyperlink ref="E57" r:id="rId55" xr:uid="{50BA5926-8319-4245-9A6E-25BBC7CE33ED}"/>
     <hyperlink ref="E58" r:id="rId56" xr:uid="{C0D80501-A2FD-471F-AAFF-977CE8C94A4C}"/>
     <hyperlink ref="E59" r:id="rId57" xr:uid="{B3B3CF1A-1BA7-44A8-B0AE-649F02C2C71D}"/>
+    <hyperlink ref="E60" r:id="rId58" xr:uid="{72028B4D-1B34-4328-A288-627F999CE469}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId58"/>
+  <pageSetup orientation="portrait" r:id="rId59"/>
   <tableParts count="1">
-    <tablePart r:id="rId59"/>
+    <tablePart r:id="rId60"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1496D00E-E85D-4DB5-BB08-95BE37F9E82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D860D025-AF29-4A4A-B31B-1634E3563FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="200">
   <si>
     <t>Question</t>
   </si>
@@ -618,6 +618,24 @@
   </si>
   <si>
     <t>The wording is confusing. Read the question carefully. The open brackets can only be (, [, or {, and they need to be closed in the correct order. E.g. ([)] is false. Use a stack, iterate the string, and consider each char. Only push the open brackets in the for loop, and compare the char (if it is a closing bracket), with the top of the stack to see if they complement. Use method of exhaustion, and only return true if the stack is empty at the end.</t>
+  </si>
+  <si>
+    <t>139. Word Break</t>
+  </si>
+  <si>
+    <t>Bottom up. Base case is the empty string which is set to true and start at the end and decrement, then at each i, check if the substring equals a word in the dict (iterate the dict in an inner loop). Dp[i] = dp[i+ w.length()], and early break the wordDict iteration with if (dp[i]). Exhaust till the end and return dp[0].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/word-break/solutions/43886/evolve-from-brute-force-to-optimal-a-review-of-all-solutions/ </t>
+  </si>
+  <si>
+    <t>15. 3Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/3sum/solutions/143636/java-with-set/ </t>
+  </si>
+  <si>
+    <t>HashSet Solution - Create the result as a HashSet. Return a new ArrayList&lt;&gt;(res), to get the set into the ArrayList. Sort the Array, iterate I in a for loop, maintain j as i+1, k as nums.length-1. While j &lt; k, get the sum of all 3, and if it is the target, then add to the result, then j++ and k--. Else, if the sum is greater than 0, decrement k, else if sum is less than 0, increment j. After we sort, we can move the pointer towards 0. There is also the HashMap solution which builds on 2Sum, iterate nums[i] and solve the 2 sum problem for the target = -nums[i]. If the array cannot be sorted, then we need to use the 2Sum solution.</t>
   </si>
 </sst>
 </file>
@@ -728,8 +746,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E60" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E60" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E62" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E62" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1004,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,6 +2046,40 @@
       </c>
       <c r="E60" s="3" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2090,11 +2142,13 @@
     <hyperlink ref="E58" r:id="rId56" xr:uid="{C0D80501-A2FD-471F-AAFF-977CE8C94A4C}"/>
     <hyperlink ref="E59" r:id="rId57" xr:uid="{B3B3CF1A-1BA7-44A8-B0AE-649F02C2C71D}"/>
     <hyperlink ref="E60" r:id="rId58" xr:uid="{72028B4D-1B34-4328-A288-627F999CE469}"/>
+    <hyperlink ref="E61" r:id="rId59" xr:uid="{8C483AE8-21DD-44F9-A1EB-B4F395F75D24}"/>
+    <hyperlink ref="E62" r:id="rId60" xr:uid="{893DD344-309B-4058-A24F-3B97CF5B4683}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId59"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
   <tableParts count="1">
-    <tablePart r:id="rId60"/>
+    <tablePart r:id="rId62"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D860D025-AF29-4A4A-B31B-1634E3563FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624CC066-7676-447F-BC32-17DDAAADEF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="206">
   <si>
     <t>Question</t>
   </si>
@@ -636,6 +636,24 @@
   </si>
   <si>
     <t>HashSet Solution - Create the result as a HashSet. Return a new ArrayList&lt;&gt;(res), to get the set into the ArrayList. Sort the Array, iterate I in a for loop, maintain j as i+1, k as nums.length-1. While j &lt; k, get the sum of all 3, and if it is the target, then add to the result, then j++ and k--. Else, if the sum is greater than 0, decrement k, else if sum is less than 0, increment j. After we sort, we can move the pointer towards 0. There is also the HashMap solution which builds on 2Sum, iterate nums[i] and solve the 2 sum problem for the target = -nums[i]. If the array cannot be sorted, then we need to use the 2Sum solution.</t>
+  </si>
+  <si>
+    <t>300. Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/longest-increasing-subsequence/solutions/74953/java-solution-dp-simple/ </t>
+  </si>
+  <si>
+    <t>Classic DP problem. A subsequence is a sequence that is not necessarily contiguous. Initialize the dp[] with 1 values as default. Maintain a local max var. We perform a nested for loop, outer i from the the right and inner j from the left. If the nums[j] inner value is greater than the outer value nums[i], then consider a new max length for that index dp[i]. Fill dp[i] = Math.max(1+dp[j], dp[i]).</t>
+  </si>
+  <si>
+    <t>763. Partition Labels</t>
+  </si>
+  <si>
+    <t>We care about the last index where each character occurs at, and we can use a HashMap. Do 2 passes: 1. HashMap, 2. Output. We need to update the while loop (it will be a nested while loop) to extend the current partition to cover all the characters that have a last occurrence inside the partition. After i passes j, we find a valid partition and add it to the result list, until i reaches the end of the string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/partition-labels/solutions/1868842/java-c-visually-explaineddddd/ </t>
   </si>
 </sst>
 </file>
@@ -746,8 +764,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E62" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E62" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E64" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E64" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1022,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,6 +2098,40 @@
       </c>
       <c r="E62" s="3" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2144,11 +2196,13 @@
     <hyperlink ref="E60" r:id="rId58" xr:uid="{72028B4D-1B34-4328-A288-627F999CE469}"/>
     <hyperlink ref="E61" r:id="rId59" xr:uid="{8C483AE8-21DD-44F9-A1EB-B4F395F75D24}"/>
     <hyperlink ref="E62" r:id="rId60" xr:uid="{893DD344-309B-4058-A24F-3B97CF5B4683}"/>
+    <hyperlink ref="E63" r:id="rId61" xr:uid="{6A1B70D5-094B-4569-90D0-3A832CA03037}"/>
+    <hyperlink ref="E64" r:id="rId62" xr:uid="{2364B6B1-0564-485F-92E7-7A30FAE8E2B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId63"/>
   <tableParts count="1">
-    <tablePart r:id="rId62"/>
+    <tablePart r:id="rId64"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624CC066-7676-447F-BC32-17DDAAADEF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700DAF46-94B6-4DC3-953C-C39CED95EF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="209">
   <si>
     <t>Question</t>
   </si>
@@ -654,6 +654,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/partition-labels/solutions/1868842/java-c-visually-explaineddddd/ </t>
+  </si>
+  <si>
+    <t>416. Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>The sum of the subsets must equal half of the sum of the total set. If sum is odd then it must be false, as there can be no half.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/partition-equal-subset-sum/solutions/462699/whiteboard-editorial-all-approaches-explained/ </t>
   </si>
 </sst>
 </file>
@@ -764,8 +773,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E64" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E64" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E65" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E65" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1040,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,6 +2141,23 @@
       </c>
       <c r="E64" s="3" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2198,11 +2224,12 @@
     <hyperlink ref="E62" r:id="rId60" xr:uid="{893DD344-309B-4058-A24F-3B97CF5B4683}"/>
     <hyperlink ref="E63" r:id="rId61" xr:uid="{6A1B70D5-094B-4569-90D0-3A832CA03037}"/>
     <hyperlink ref="E64" r:id="rId62" xr:uid="{2364B6B1-0564-485F-92E7-7A30FAE8E2B7}"/>
+    <hyperlink ref="E65" r:id="rId63" xr:uid="{0DAED9B9-BEBC-4B7B-A57E-DFA04BC0F1AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId63"/>
+  <pageSetup orientation="portrait" r:id="rId64"/>
   <tableParts count="1">
-    <tablePart r:id="rId64"/>
+    <tablePart r:id="rId65"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700DAF46-94B6-4DC3-953C-C39CED95EF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5562B32-4410-428B-91D0-33B058108787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="212">
   <si>
     <t>Question</t>
   </si>
@@ -663,6 +663,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/partition-equal-subset-sum/solutions/462699/whiteboard-editorial-all-approaches-explained/ </t>
+  </si>
+  <si>
+    <t>678. Valid Parenthesis String</t>
+  </si>
+  <si>
+    <t>The conditions are the same as Valid Parentheses, but with the wildcard *. The brute force is the decision tree, but the trick is to maintain two variables LeftMin and leftMax depending on the left parenthesis - the right parenthesis and how we chose the wildcard. leftMin is reset to 0 if the becomes negative, but if leftMax becomes negative, we immediately return false, as we cannot "recover" from this state. It builds on 20. Valid Parentheses, so it can be solved with a stack, if you cannot remember the trick.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/valid-parenthesis-string/solutions/543521/java-count-open-parenthesis-o-n-time-o-1-space-picture-explain/ </t>
   </si>
 </sst>
 </file>
@@ -773,8 +782,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E65" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E65" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E66" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E66" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1049,9 +1058,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
@@ -2158,6 +2167,23 @@
       </c>
       <c r="E65" s="3" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2225,11 +2251,12 @@
     <hyperlink ref="E63" r:id="rId61" xr:uid="{6A1B70D5-094B-4569-90D0-3A832CA03037}"/>
     <hyperlink ref="E64" r:id="rId62" xr:uid="{2364B6B1-0564-485F-92E7-7A30FAE8E2B7}"/>
     <hyperlink ref="E65" r:id="rId63" xr:uid="{0DAED9B9-BEBC-4B7B-A57E-DFA04BC0F1AC}"/>
+    <hyperlink ref="E66" r:id="rId64" xr:uid="{536808C8-F16C-486E-AE8E-53CBB0CBED04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId64"/>
+  <pageSetup orientation="portrait" r:id="rId65"/>
   <tableParts count="1">
-    <tablePart r:id="rId65"/>
+    <tablePart r:id="rId66"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5562B32-4410-428B-91D0-33B058108787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232FB410-F991-4A25-969E-26FB025C84E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="215">
   <si>
     <t>Question</t>
   </si>
@@ -672,6 +672,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/valid-parenthesis-string/solutions/543521/java-count-open-parenthesis-o-n-time-o-1-space-picture-explain/ </t>
+  </si>
+  <si>
+    <t>62. Unique Paths</t>
+  </si>
+  <si>
+    <t>A recursive solution is DFS with a cache[r][c], as res = right + down counts. For the base case, we can choose to define the finish as 1, and define out of bounds as 0. The last row and col should be filled with 1 as there is only 1 possible path. We can set each cell from the base case (end) and fill the cells with the number of paths that can reach the end. You can return the sum of all of them as the result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/unique-paths/solutions/182143/recursive-memoization-and-dynamic-programming-solutions/ </t>
   </si>
 </sst>
 </file>
@@ -782,8 +791,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E66" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E66" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E67" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E67" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1058,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,6 +2193,23 @@
       </c>
       <c r="E66" s="3" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2252,11 +2278,12 @@
     <hyperlink ref="E64" r:id="rId62" xr:uid="{2364B6B1-0564-485F-92E7-7A30FAE8E2B7}"/>
     <hyperlink ref="E65" r:id="rId63" xr:uid="{0DAED9B9-BEBC-4B7B-A57E-DFA04BC0F1AC}"/>
     <hyperlink ref="E66" r:id="rId64" xr:uid="{536808C8-F16C-486E-AE8E-53CBB0CBED04}"/>
+    <hyperlink ref="E67" r:id="rId65" xr:uid="{4CDA9A30-0298-4C05-81AE-799976EC2BF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId65"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
   <tableParts count="1">
-    <tablePart r:id="rId66"/>
+    <tablePart r:id="rId67"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232FB410-F991-4A25-969E-26FB025C84E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189FFE23-801A-4426-AF6C-F68C4D71E4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="218">
   <si>
     <t>Question</t>
   </si>
@@ -681,6 +681,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/unique-paths/solutions/182143/recursive-memoization-and-dynamic-programming-solutions/ </t>
+  </si>
+  <si>
+    <t>210. Course Schedule II</t>
+  </si>
+  <si>
+    <t>Topological Sort. DFS. First build an adjacency list of prereqs. Once a course with no prereqs are met, you add it to the output, then remove it from the adjacency map (and graph). If we detect a cycle, the graph is invalid and we return an empty list. We detect one by using a HashSet to store the current path. A course has 3 possible states: visited, visiting, and unvisited.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/course-schedule-ii/solutions/59317/two-ac-solution-in-java-using-bfs-and-dfs-with-explanation/ </t>
   </si>
 </sst>
 </file>
@@ -791,8 +800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E67" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E67" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E68" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E68" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1067,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,6 +2219,23 @@
       </c>
       <c r="E67" s="3" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2279,11 +2305,12 @@
     <hyperlink ref="E65" r:id="rId63" xr:uid="{0DAED9B9-BEBC-4B7B-A57E-DFA04BC0F1AC}"/>
     <hyperlink ref="E66" r:id="rId64" xr:uid="{536808C8-F16C-486E-AE8E-53CBB0CBED04}"/>
     <hyperlink ref="E67" r:id="rId65" xr:uid="{4CDA9A30-0298-4C05-81AE-799976EC2BF1}"/>
+    <hyperlink ref="E68" r:id="rId66" xr:uid="{2A4BCB0C-581C-46C8-88F0-549E48ED414F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId66"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
   <tableParts count="1">
-    <tablePart r:id="rId67"/>
+    <tablePart r:id="rId68"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189FFE23-801A-4426-AF6C-F68C4D71E4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CBE510-D28F-43A6-95E5-673A77ACC836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="221">
   <si>
     <t>Question</t>
   </si>
@@ -686,10 +686,19 @@
     <t>210. Course Schedule II</t>
   </si>
   <si>
-    <t>Topological Sort. DFS. First build an adjacency list of prereqs. Once a course with no prereqs are met, you add it to the output, then remove it from the adjacency map (and graph). If we detect a cycle, the graph is invalid and we return an empty list. We detect one by using a HashSet to store the current path. A course has 3 possible states: visited, visiting, and unvisited.</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://leetcode.com/problems/course-schedule-ii/solutions/59317/two-ac-solution-in-java-using-bfs-and-dfs-with-explanation/ </t>
+  </si>
+  <si>
+    <t>1143. Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Review further. Topological Sort. DFS. First build an adjacency list of prereqs. Once a course with no prereqs are met, you add it to the output, then remove it from the adjacency map (and graph). If we detect a cycle, the graph is invalid and we return an empty list. We detect one by using a HashSet to store the current path. A course has 3 possible states: visited, visiting, and unvisited.</t>
+  </si>
+  <si>
+    <t>Review this one further. Become familiar with solving by the 2d matrix. We use a 2d grid for the characters of the strings. We represent if the character exists in both strings where the row and column matches. However, to find that value, we solve the subproblem. Only when the characters match, do we go diagonally, but if not, we find the maximum to the right and the bottom and fill the initial cell with the max. After we reach the end, we trace the path back to the beginning and return it. To solve the subproblem, add 1 if the chars match, else, take the max of the right or the bottom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/longest-common-subsequence/solutions/351689/java-python-3-two-dp-codes-of-o-mn-o-min-m-n-spaces-w-picture-and-analysis/ </t>
   </si>
 </sst>
 </file>
@@ -800,8 +809,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E68" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E68" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E69" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E69" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1076,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,10 +2241,27 @@
         <v>179</v>
       </c>
       <c r="D68" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E68" s="3" t="s">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>217</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2306,11 +2332,12 @@
     <hyperlink ref="E66" r:id="rId64" xr:uid="{536808C8-F16C-486E-AE8E-53CBB0CBED04}"/>
     <hyperlink ref="E67" r:id="rId65" xr:uid="{4CDA9A30-0298-4C05-81AE-799976EC2BF1}"/>
     <hyperlink ref="E68" r:id="rId66" xr:uid="{2A4BCB0C-581C-46C8-88F0-549E48ED414F}"/>
+    <hyperlink ref="E69" r:id="rId67" xr:uid="{07223D83-DFCC-489E-94AE-E9CA241A4577}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
+  <pageSetup orientation="portrait" r:id="rId68"/>
   <tableParts count="1">
-    <tablePart r:id="rId68"/>
+    <tablePart r:id="rId69"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CBE510-D28F-43A6-95E5-673A77ACC836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825C9F96-FA6D-4082-807B-ADEAC4540D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="224">
   <si>
     <t>Question</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/longest-common-subsequence/solutions/351689/java-python-3-two-dp-codes-of-o-mn-o-min-m-n-spaces-w-picture-and-analysis/ </t>
+  </si>
+  <si>
+    <t>309. Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Top-Down with memoization. Use a HashMap cache with 2 keys (i, buy/sell). For the state, we increment by 1 if we buy, and 2 if we sell, as we need to cooldown. We flip the state at each step of recursion. For each step, there are 3 state transitions: buy, sell, cooldown. After selling, cooldown is forced for 1 day as a restriction. The base case if where the index is greater than the prices length. We put the max of buyorsell and cooldown in the cache for each key, and we return the cache.get(key) in the dfs, and finally we return dfs of index 0 and true. In the cache, we are actually storing the state at each index as the key (buy at i, sell at i) and for the keys (max of buy, max of sell, max of cooldown) at that key.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/solutions/75928/share-my-dp-solution-by-state-machine-thinking/ </t>
   </si>
 </sst>
 </file>
@@ -809,8 +818,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E69" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E69" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E70" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E70" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1085,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,6 +2271,23 @@
       </c>
       <c r="E69" s="3" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2333,11 +2359,12 @@
     <hyperlink ref="E67" r:id="rId65" xr:uid="{4CDA9A30-0298-4C05-81AE-799976EC2BF1}"/>
     <hyperlink ref="E68" r:id="rId66" xr:uid="{2A4BCB0C-581C-46C8-88F0-549E48ED414F}"/>
     <hyperlink ref="E69" r:id="rId67" xr:uid="{07223D83-DFCC-489E-94AE-E9CA241A4577}"/>
+    <hyperlink ref="E70" r:id="rId68" xr:uid="{5803516B-900B-4EFE-BE96-FFBFFAF74AC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId68"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
   <tableParts count="1">
-    <tablePart r:id="rId69"/>
+    <tablePart r:id="rId70"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825C9F96-FA6D-4082-807B-ADEAC4540D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1088F5EF-2D1E-4C39-BB31-5DBA8F29ABEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="227">
   <si>
     <t>Question</t>
   </si>
@@ -708,6 +708,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/solutions/75928/share-my-dp-solution-by-state-machine-thinking/ </t>
+  </si>
+  <si>
+    <t>684. Redundant Connection</t>
+  </si>
+  <si>
+    <t>Union-Find is the optimal solution. The algorithm can be memorized. A useful property of graphs is that if the n edges equal the n nodes, then you will end up with a cycle. Maintain a Parent and Rank array. We join trees of lower rank to trees of higher rank, and increase the rank of a tree if a tree with the same level is added to it. When we merge nodes, check their parent (using find()) to check if the connection already exists. Else we merge their parents with union(). The algorithm consists of a Find function and a Union function. Remember the path compression in the find function. The Union function will return false if cant complete. Return true if we can.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/redundant-connection/solutions/1139926/java-simple-and-easy-to-understand-solution-0-ms-faster-than-100-00-clean-code-with-comments/ </t>
   </si>
 </sst>
 </file>
@@ -818,8 +827,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E70" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E70" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E71" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E71" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1094,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,6 +2297,23 @@
       </c>
       <c r="E70" s="3" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2360,11 +2386,12 @@
     <hyperlink ref="E68" r:id="rId66" xr:uid="{2A4BCB0C-581C-46C8-88F0-549E48ED414F}"/>
     <hyperlink ref="E69" r:id="rId67" xr:uid="{07223D83-DFCC-489E-94AE-E9CA241A4577}"/>
     <hyperlink ref="E70" r:id="rId68" xr:uid="{5803516B-900B-4EFE-BE96-FFBFFAF74AC2}"/>
+    <hyperlink ref="E71" r:id="rId69" xr:uid="{48799BC2-96C6-444B-8B8E-02669E0251D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId70"/>
   <tableParts count="1">
-    <tablePart r:id="rId70"/>
+    <tablePart r:id="rId71"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1088F5EF-2D1E-4C39-BB31-5DBA8F29ABEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162F51A7-5550-4C12-80D4-30E3922CF79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="230">
   <si>
     <t>Question</t>
   </si>
@@ -717,6 +717,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/redundant-connection/solutions/1139926/java-simple-and-easy-to-understand-solution-0-ms-faster-than-100-00-clean-code-with-comments/ </t>
+  </si>
+  <si>
+    <t>127. Word Ladder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/word-ladder/solutions/1764371/a-very-highly-detailed-explanation/ </t>
+  </si>
+  <si>
+    <t>BFS Graph. Find the shortest length to the end word, and return the number of layers as the distance. Go through every word in the list, every character in each word. Change one character at a time and try every character from a-z, and see if a word in the list is found. If a word is found, put it into the queue. At the next step, increment step, then do the same with the words in the queue, and repeat this until the endword is found. Return step. This can also be solved optimally if we preprocess and use an adjacency list with generics. Use a HashMap where they key is the generic, e.g. d*g -&gt; ["dog", "fog", "log"] to use * for each character in the words and lookup only the possible words from the list.</t>
   </si>
 </sst>
 </file>
@@ -827,8 +836,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E71" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E71" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E72" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E72" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1103,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,6 +2323,23 @@
       </c>
       <c r="E71" s="3" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" t="s">
+        <v>229</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2387,11 +2413,12 @@
     <hyperlink ref="E69" r:id="rId67" xr:uid="{07223D83-DFCC-489E-94AE-E9CA241A4577}"/>
     <hyperlink ref="E70" r:id="rId68" xr:uid="{5803516B-900B-4EFE-BE96-FFBFFAF74AC2}"/>
     <hyperlink ref="E71" r:id="rId69" xr:uid="{48799BC2-96C6-444B-8B8E-02669E0251D5}"/>
+    <hyperlink ref="E72" r:id="rId70" xr:uid="{612755BD-60EB-4191-9B5C-04E43F5A4A46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId70"/>
+  <pageSetup orientation="portrait" r:id="rId71"/>
   <tableParts count="1">
-    <tablePart r:id="rId71"/>
+    <tablePart r:id="rId72"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162F51A7-5550-4C12-80D4-30E3922CF79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2542C97-B8A8-4295-82A0-5D1897116D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="234">
   <si>
     <t>Question</t>
   </si>
@@ -726,6 +726,18 @@
   </si>
   <si>
     <t>BFS Graph. Find the shortest length to the end word, and return the number of layers as the distance. Go through every word in the list, every character in each word. Change one character at a time and try every character from a-z, and see if a word in the list is found. If a word is found, put it into the queue. At the next step, increment step, then do the same with the words in the queue, and repeat this until the endword is found. Return step. This can also be solved optimally if we preprocess and use an adjacency list with generics. Use a HashMap where they key is the generic, e.g. d*g -&gt; ["dog", "fog", "log"] to use * for each character in the words and lookup only the possible words from the list.</t>
+  </si>
+  <si>
+    <t>211. Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>Tries</t>
+  </si>
+  <si>
+    <t>We insert each character in each word into the trie. The TrieNode has a list of its children, and an attribute to signify the end of a word. Use children[] in the ListNode and [ch - 'a'] for the index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/design-add-and-search-words-data-structure/solutions/1725327/java-c-python-a-very-well-detailed-explanation/ </t>
   </si>
 </sst>
 </file>
@@ -836,8 +848,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E72" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E72" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E73" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E73" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1112,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D76" sqref="D76"/>
@@ -2340,6 +2352,23 @@
       </c>
       <c r="E72" s="3" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>231</v>
+      </c>
+      <c r="D73" t="s">
+        <v>232</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2414,11 +2443,12 @@
     <hyperlink ref="E70" r:id="rId68" xr:uid="{5803516B-900B-4EFE-BE96-FFBFFAF74AC2}"/>
     <hyperlink ref="E71" r:id="rId69" xr:uid="{48799BC2-96C6-444B-8B8E-02669E0251D5}"/>
     <hyperlink ref="E72" r:id="rId70" xr:uid="{612755BD-60EB-4191-9B5C-04E43F5A4A46}"/>
+    <hyperlink ref="E73" r:id="rId71" xr:uid="{EA4113EE-210F-47B8-885A-EF677632D283}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId71"/>
+  <pageSetup orientation="portrait" r:id="rId72"/>
   <tableParts count="1">
-    <tablePart r:id="rId72"/>
+    <tablePart r:id="rId73"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2542C97-B8A8-4295-82A0-5D1897116D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD3F8F1-1709-4896-AA8E-9D7D248F4E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="238">
   <si>
     <t>Question</t>
   </si>
@@ -738,6 +738,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/design-add-and-search-words-data-structure/solutions/1725327/java-c-python-a-very-well-detailed-explanation/ </t>
+  </si>
+  <si>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Heaps</t>
+  </si>
+  <si>
+    <t>The naive way is to sort and return len-k. We can solve with n + klogn time with a heap, but the optimal is average O(n) time with Quick Select. We choose a element as a pivot, and iterate the other elements, choosing to place it to the left or the right of the pivot based on the element we chose. Each side of the pivot is the "partition". At the end, we swap the pivot value with the element remaining at the pivot index. We recursively perform this on the partitions until we find the element at length-k.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/kth-largest-element-in-an-array/solutions/60294/solution-explained/ </t>
   </si>
 </sst>
 </file>
@@ -848,8 +860,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E73" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E73" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E74" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E74" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1124,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,6 +2381,23 @@
       </c>
       <c r="E73" s="3" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" t="s">
+        <v>236</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2444,11 +2473,12 @@
     <hyperlink ref="E71" r:id="rId69" xr:uid="{48799BC2-96C6-444B-8B8E-02669E0251D5}"/>
     <hyperlink ref="E72" r:id="rId70" xr:uid="{612755BD-60EB-4191-9B5C-04E43F5A4A46}"/>
     <hyperlink ref="E73" r:id="rId71" xr:uid="{EA4113EE-210F-47B8-885A-EF677632D283}"/>
+    <hyperlink ref="E74" r:id="rId72" xr:uid="{CE35531C-EA82-4A1D-8A3E-9E1522E474ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId72"/>
+  <pageSetup orientation="portrait" r:id="rId73"/>
   <tableParts count="1">
-    <tablePart r:id="rId73"/>
+    <tablePart r:id="rId74"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD3F8F1-1709-4896-AA8E-9D7D248F4E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D599FCE6-BAD6-40C0-9EC5-E485237E068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="241">
   <si>
     <t>Question</t>
   </si>
@@ -750,6 +750,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/kth-largest-element-in-an-array/solutions/60294/solution-explained/ </t>
+  </si>
+  <si>
+    <t>332. Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/reconstruct-itinerary/solutions/359942/awesome-question-new-algo-to-learn-eulerian-path-full-explanation-code/ </t>
+  </si>
+  <si>
+    <t>Eulerian Path. Keep going forward until you get stuck, then the remaining nodes form cycles which are found on the way back and get merged into that main path. By writing down the path backwards when retreating from recursion, merging the cycles into the main path is easy.</t>
   </si>
 </sst>
 </file>
@@ -860,8 +869,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E74" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E74" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E75" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E75" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1136,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,6 +2407,23 @@
       </c>
       <c r="E74" s="3" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" t="s">
+        <v>240</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2474,11 +2500,12 @@
     <hyperlink ref="E72" r:id="rId70" xr:uid="{612755BD-60EB-4191-9B5C-04E43F5A4A46}"/>
     <hyperlink ref="E73" r:id="rId71" xr:uid="{EA4113EE-210F-47B8-885A-EF677632D283}"/>
     <hyperlink ref="E74" r:id="rId72" xr:uid="{CE35531C-EA82-4A1D-8A3E-9E1522E474ED}"/>
+    <hyperlink ref="E75" r:id="rId73" xr:uid="{97C19B9D-5042-4EBF-97FB-2201714FA78E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId73"/>
+  <pageSetup orientation="portrait" r:id="rId74"/>
   <tableParts count="1">
-    <tablePart r:id="rId74"/>
+    <tablePart r:id="rId75"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D599FCE6-BAD6-40C0-9EC5-E485237E068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CEBE06-E756-455A-BAD9-DEC0DC81D8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="249">
   <si>
     <t>Question</t>
   </si>
@@ -759,6 +759,30 @@
   </si>
   <si>
     <t>Eulerian Path. Keep going forward until you get stuck, then the remaining nodes form cycles which are found on the way back and get merged into that main path. By writing down the path backwards when retreating from recursion, merging the cycles into the main path is easy.</t>
+  </si>
+  <si>
+    <t>56. Merge Intervals</t>
+  </si>
+  <si>
+    <t>Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/merge-intervals/solutions/1644169/java-simple-steps-explained-simple-sort/ </t>
+  </si>
+  <si>
+    <t>Classic Merge Intervals. First sort the input then iterate through the interval. Draw a number line to help visualize, especially for more difficult interval problems. Remember the comparator: Arrays.sort(intervals, (a,b) -&gt; Integer.compare(a[0],b[0])); and ans.toArray(res); and ArrayList&lt;int[]&gt; ans  = new ArrayList&lt;&gt;(); If you cant remember the conversions, you can manually iterate.</t>
+  </si>
+  <si>
+    <t>48. Rotate Image</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Brute force - Visualize the matrix and note the offsets from the boundaries of the dimensions. There is a matrix flipping algorithm which you can perform 2x, horizontally and vertically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/rotate-image/solutions/18879/ac-java-in-place-solution-with-explanation-easy-to-understand/ </t>
   </si>
 </sst>
 </file>
@@ -869,8 +893,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E75" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E75" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E77" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E77" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1145,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,6 +2448,40 @@
       </c>
       <c r="E75" s="3" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>242</v>
+      </c>
+      <c r="D76" t="s">
+        <v>244</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2501,11 +2559,13 @@
     <hyperlink ref="E73" r:id="rId71" xr:uid="{EA4113EE-210F-47B8-885A-EF677632D283}"/>
     <hyperlink ref="E74" r:id="rId72" xr:uid="{CE35531C-EA82-4A1D-8A3E-9E1522E474ED}"/>
     <hyperlink ref="E75" r:id="rId73" xr:uid="{97C19B9D-5042-4EBF-97FB-2201714FA78E}"/>
+    <hyperlink ref="E76" r:id="rId74" xr:uid="{5F2917D3-E10D-4525-B52B-A8E36B1DC77A}"/>
+    <hyperlink ref="E77" r:id="rId75" xr:uid="{107E481E-F02D-491C-86D3-6550AAFB78ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId74"/>
+  <pageSetup orientation="portrait" r:id="rId76"/>
   <tableParts count="1">
-    <tablePart r:id="rId75"/>
+    <tablePart r:id="rId77"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CEBE06-E756-455A-BAD9-DEC0DC81D8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A87D87-0E1F-4F63-AAB8-CDFB2E5F2A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="252">
   <si>
     <t>Question</t>
   </si>
@@ -783,6 +783,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/rotate-image/solutions/18879/ac-java-in-place-solution-with-explanation-easy-to-understand/ </t>
+  </si>
+  <si>
+    <t>54. Spiral Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/spiral-matrix/solutions/20599/super-simple-and-easy-to-understand-solution/ </t>
+  </si>
+  <si>
+    <t>Use 4 pointers. Shrink the Left and Right, and Top and Bottom boundaries by 1 at each iteration to get to the submatrix. We can use an outer condition of while (left &lt;= right &amp;&amp; top &lt;= bottom). The we do a for loop for left to right, and increment top by 1 after the loop. Then the same from right to left. Then do the bottom row, then left. For traversing left or up, use an if statement to check for dulicates. Handle off by 1 errors.</t>
   </si>
 </sst>
 </file>
@@ -893,8 +902,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E77" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E77" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E78" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E78" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1169,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,6 +2491,23 @@
       </c>
       <c r="E77" s="3" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>249</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2561,11 +2587,12 @@
     <hyperlink ref="E75" r:id="rId73" xr:uid="{97C19B9D-5042-4EBF-97FB-2201714FA78E}"/>
     <hyperlink ref="E76" r:id="rId74" xr:uid="{5F2917D3-E10D-4525-B52B-A8E36B1DC77A}"/>
     <hyperlink ref="E77" r:id="rId75" xr:uid="{107E481E-F02D-491C-86D3-6550AAFB78ED}"/>
+    <hyperlink ref="E78" r:id="rId76" xr:uid="{AA8EB26C-4CB8-4C33-8628-7E57E6956E88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId76"/>
+  <pageSetup orientation="portrait" r:id="rId77"/>
   <tableParts count="1">
-    <tablePart r:id="rId77"/>
+    <tablePart r:id="rId78"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A87D87-0E1F-4F63-AAB8-CDFB2E5F2A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833166FA-CBBF-4905-988D-AA7BC25CCC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="255">
   <si>
     <t>Question</t>
   </si>
@@ -792,6 +792,15 @@
   </si>
   <si>
     <t>Use 4 pointers. Shrink the Left and Right, and Top and Bottom boundaries by 1 at each iteration to get to the submatrix. We can use an outer condition of while (left &lt;= right &amp;&amp; top &lt;= bottom). The we do a for loop for left to right, and increment top by 1 after the loop. Then the same from right to left. Then do the bottom row, then left. For traversing left or up, use an if statement to check for dulicates. Handle off by 1 errors.</t>
+  </si>
+  <si>
+    <t>1584. Min Cost to Connect All Points</t>
+  </si>
+  <si>
+    <t>Minimum Spanning Tree - Prim's or Kruskal's algorithm. For Prim's: 1. Create the edges (adjacency list). It will take n-1 edges to connect the nodes without a cycle. For data data structures, need a hash set for visited nodes, and a min heap for the Frontier, with the weight and the node value. We add to the cost when we pick from the frontier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/min-cost-to-connect-all-points/solutions/4045874/94-85-prim-kruskal-with-min-heap/ </t>
   </si>
 </sst>
 </file>
@@ -902,8 +911,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E78" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E78" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E79" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E79" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1178,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,6 +2517,23 @@
       </c>
       <c r="E78" s="3" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2588,11 +2614,12 @@
     <hyperlink ref="E76" r:id="rId74" xr:uid="{5F2917D3-E10D-4525-B52B-A8E36B1DC77A}"/>
     <hyperlink ref="E77" r:id="rId75" xr:uid="{107E481E-F02D-491C-86D3-6550AAFB78ED}"/>
     <hyperlink ref="E78" r:id="rId76" xr:uid="{AA8EB26C-4CB8-4C33-8628-7E57E6956E88}"/>
+    <hyperlink ref="E79" r:id="rId77" xr:uid="{BDAE1C8B-CEEC-428F-A322-B85B3D17877E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId77"/>
+  <pageSetup orientation="portrait" r:id="rId78"/>
   <tableParts count="1">
-    <tablePart r:id="rId78"/>
+    <tablePart r:id="rId79"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833166FA-CBBF-4905-988D-AA7BC25CCC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78F081-AFFC-46DF-B31E-EF6BFD635ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="258">
   <si>
     <t>Question</t>
   </si>
@@ -801,6 +801,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/min-cost-to-connect-all-points/solutions/4045874/94-85-prim-kruskal-with-min-heap/ </t>
+  </si>
+  <si>
+    <t>435. Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t>First sort the list (by the left value). Compare adjacent pairs. We always remove the overlapping intervals that end last. At each iteration, the interval will be shifted no matter what, but if they overlap, we handle which one to keep. The Java array sorting is: Arrays.sort(intervals, (arr1, arr2) -&gt; Integer.compare(arr1[0], arr2[0])); Optimally, we just track the counts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/non-overlapping-intervals/solutions/510140/java-solution-easy-to-understand-not-most-efficient/ </t>
   </si>
 </sst>
 </file>
@@ -911,8 +920,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E79" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E79" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E80" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E80" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1187,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,6 +2543,23 @@
       </c>
       <c r="E79" s="3" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>242</v>
+      </c>
+      <c r="D80" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2615,11 +2641,12 @@
     <hyperlink ref="E77" r:id="rId75" xr:uid="{107E481E-F02D-491C-86D3-6550AAFB78ED}"/>
     <hyperlink ref="E78" r:id="rId76" xr:uid="{AA8EB26C-4CB8-4C33-8628-7E57E6956E88}"/>
     <hyperlink ref="E79" r:id="rId77" xr:uid="{BDAE1C8B-CEEC-428F-A322-B85B3D17877E}"/>
+    <hyperlink ref="E80" r:id="rId78" xr:uid="{4720461F-13F5-4471-A513-2148328C2006}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId78"/>
+  <pageSetup orientation="portrait" r:id="rId79"/>
   <tableParts count="1">
-    <tablePart r:id="rId79"/>
+    <tablePart r:id="rId80"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78F081-AFFC-46DF-B31E-EF6BFD635ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8E173A-954C-4458-8AB2-79BEF4084B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="261">
   <si>
     <t>Question</t>
   </si>
@@ -810,6 +810,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/non-overlapping-intervals/solutions/510140/java-solution-easy-to-understand-not-most-efficient/ </t>
+  </si>
+  <si>
+    <t>73. Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>In the brute force, start with a copy matrix. Read the input, but update the copy, as we do not want it to dynamically update. For an improvement, replace the copy matrix with a row array and column array to mark which rows and columns get set to zero. The optimal, for O(1) space, we put the row array and column array inside the input matrix itself to perform in place, but need 1 extra dedicated variable for the first cell where rows and columns overlap. The reason we can overlap, is because we read the input before we overwrite, so the computation is accurate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/set-matrix-zeroes/solutions/2525398/all-approaches-from-brute-force-to-optimal-with-easy-explanation/ </t>
   </si>
 </sst>
 </file>
@@ -920,8 +929,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E80" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E80" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E81" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E81" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1196,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,6 +2569,23 @@
       </c>
       <c r="E80" s="3" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2642,11 +2668,12 @@
     <hyperlink ref="E78" r:id="rId76" xr:uid="{AA8EB26C-4CB8-4C33-8628-7E57E6956E88}"/>
     <hyperlink ref="E79" r:id="rId77" xr:uid="{BDAE1C8B-CEEC-428F-A322-B85B3D17877E}"/>
     <hyperlink ref="E80" r:id="rId78" xr:uid="{4720461F-13F5-4471-A513-2148328C2006}"/>
+    <hyperlink ref="E81" r:id="rId79" xr:uid="{BAD4C498-C707-47B1-9B1C-D7ED69C9AE86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId79"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
   <tableParts count="1">
-    <tablePart r:id="rId80"/>
+    <tablePart r:id="rId81"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8E173A-954C-4458-8AB2-79BEF4084B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AB90A-0ECC-45A6-AC94-79C6E680CFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="264">
   <si>
     <t>Question</t>
   </si>
@@ -819,6 +819,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/set-matrix-zeroes/solutions/2525398/all-approaches-from-brute-force-to-optimal-with-easy-explanation/ </t>
+  </si>
+  <si>
+    <t>212. Word Search 2</t>
+  </si>
+  <si>
+    <t>We create a prefix tree (trie) with the word list, then perform Backtracking DFS on the grid (Word Search I). We also need to use the visited HashSet for grid traversal. Review Word Search 1 and Grid DFS as this is a combination of those.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/word-search-ii/solutions/59881/my-java-solution-using-trie/ </t>
   </si>
 </sst>
 </file>
@@ -929,8 +938,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E81" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E81" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E82" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E82" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1205,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,6 +2595,23 @@
       </c>
       <c r="E81" s="3" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>261</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" t="s">
+        <v>262</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2669,11 +2695,12 @@
     <hyperlink ref="E79" r:id="rId77" xr:uid="{BDAE1C8B-CEEC-428F-A322-B85B3D17877E}"/>
     <hyperlink ref="E80" r:id="rId78" xr:uid="{4720461F-13F5-4471-A513-2148328C2006}"/>
     <hyperlink ref="E81" r:id="rId79" xr:uid="{BAD4C498-C707-47B1-9B1C-D7ED69C9AE86}"/>
+    <hyperlink ref="E82" r:id="rId80" xr:uid="{46ED7B98-738D-4A43-9A13-77DFCD23B55D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId81"/>
   <tableParts count="1">
-    <tablePart r:id="rId81"/>
+    <tablePart r:id="rId82"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AB90A-0ECC-45A6-AC94-79C6E680CFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635EA262-5322-4964-A9BC-916109A1573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="267">
   <si>
     <t>Question</t>
   </si>
@@ -828,6 +828,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/word-search-ii/solutions/59881/my-java-solution-using-trie/ </t>
+  </si>
+  <si>
+    <t>202. Happy Number</t>
+  </si>
+  <si>
+    <t>There will always be a cycle, either 1 or not 1. We use a hash set, if we ever reach 1, we return true, and if any node (number) is visited more than once, return false. To compute the sum of squares, we iterate the number, while it is not 0, use mod to get the first place digit, then divide by 10. It will eventually reach 0. Digit = n % 10, digit = digit * digit, output += digit, n = n / 10. The optimal solution is a Linked List Cycle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/happy-number/solutions/56913/beat-90-fast-easy-understand-java-solution-with-brief-explanation/ </t>
   </si>
 </sst>
 </file>
@@ -938,8 +947,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E82" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E82" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E83" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E83" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1214,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,6 +2621,23 @@
       </c>
       <c r="E82" s="3" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>264</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2696,11 +2722,12 @@
     <hyperlink ref="E80" r:id="rId78" xr:uid="{4720461F-13F5-4471-A513-2148328C2006}"/>
     <hyperlink ref="E81" r:id="rId79" xr:uid="{BAD4C498-C707-47B1-9B1C-D7ED69C9AE86}"/>
     <hyperlink ref="E82" r:id="rId80" xr:uid="{46ED7B98-738D-4A43-9A13-77DFCD23B55D}"/>
+    <hyperlink ref="E83" r:id="rId81" xr:uid="{A1AE87C1-ACB6-474C-9E85-33EC8A7BCDE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId81"/>
+  <pageSetup orientation="portrait" r:id="rId82"/>
   <tableParts count="1">
-    <tablePart r:id="rId82"/>
+    <tablePart r:id="rId83"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635EA262-5322-4964-A9BC-916109A1573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BDED5F-807B-441B-B644-87233886C33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="270">
   <si>
     <t>Question</t>
   </si>
@@ -837,6 +837,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/happy-number/solutions/56913/beat-90-fast-easy-understand-java-solution-with-brief-explanation/ </t>
+  </si>
+  <si>
+    <t>1851. Minimum Interval to Include Each Query</t>
+  </si>
+  <si>
+    <t>First sort the query. Maintain a Min Heap, where the nodes (s, r) have s size of the interval, and r the end of the interval. For each query, we find the endpoint r of the interval that it belongs to, then add to the Min heap. While we encounter intervals in the heap that the query does not fall into, we pop them. Then for that query, the top of the min heap of valid nodes will be the interval to add to our results list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/minimum-interval-to-include-each-query/solutions/1207571/java-simple-and-easy-to-understand-solution-109-ms-faster-than-85-05-clean-code-with-comments/ </t>
   </si>
 </sst>
 </file>
@@ -947,8 +956,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E83" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E83" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E84" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E84" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1223,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2638,6 +2647,23 @@
       </c>
       <c r="E83" s="3" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>267</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" t="s">
+        <v>268</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2723,11 +2749,12 @@
     <hyperlink ref="E81" r:id="rId79" xr:uid="{BAD4C498-C707-47B1-9B1C-D7ED69C9AE86}"/>
     <hyperlink ref="E82" r:id="rId80" xr:uid="{46ED7B98-738D-4A43-9A13-77DFCD23B55D}"/>
     <hyperlink ref="E83" r:id="rId81" xr:uid="{A1AE87C1-ACB6-474C-9E85-33EC8A7BCDE1}"/>
+    <hyperlink ref="E84" r:id="rId82" xr:uid="{A4EA6566-C022-402B-B933-2D8158BE5DBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId82"/>
+  <pageSetup orientation="portrait" r:id="rId83"/>
   <tableParts count="1">
-    <tablePart r:id="rId83"/>
+    <tablePart r:id="rId84"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BDED5F-807B-441B-B644-87233886C33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6901562-3385-40B7-91E9-160BF9067D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="273">
   <si>
     <t>Question</t>
   </si>
@@ -846,6 +846,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/minimum-interval-to-include-each-query/solutions/1207571/java-simple-and-easy-to-understand-solution-109-ms-faster-than-85-05-clean-code-with-comments/ </t>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+  </si>
+  <si>
+    <t>We use a MaxHeap, and also a Queue to manage the cooldown time then add back to the heap. Store the queue pairs as (task freq, time available again). Use a freq array for 'A' to 'Z'. We can also use a PQ and hashmap with a Greedy approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/task-scheduler/solutions/104511/java-solution-priorityqueue-and-hashmap/ </t>
   </si>
 </sst>
 </file>
@@ -956,8 +965,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E84" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E84" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E85" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E85" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1232,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,6 +2673,23 @@
       </c>
       <c r="E84" s="3" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" t="s">
+        <v>271</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2750,11 +2776,12 @@
     <hyperlink ref="E82" r:id="rId80" xr:uid="{46ED7B98-738D-4A43-9A13-77DFCD23B55D}"/>
     <hyperlink ref="E83" r:id="rId81" xr:uid="{A1AE87C1-ACB6-474C-9E85-33EC8A7BCDE1}"/>
     <hyperlink ref="E84" r:id="rId82" xr:uid="{A4EA6566-C022-402B-B933-2D8158BE5DBD}"/>
+    <hyperlink ref="E85" r:id="rId83" xr:uid="{A4A7A1BD-66B7-4214-A900-B665A9E8AF3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId83"/>
+  <pageSetup orientation="portrait" r:id="rId84"/>
   <tableParts count="1">
-    <tablePart r:id="rId84"/>
+    <tablePart r:id="rId85"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6901562-3385-40B7-91E9-160BF9067D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C2E745-CA35-483D-AA69-386607E3CD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="279">
   <si>
     <t>Question</t>
   </si>
@@ -855,6 +855,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/task-scheduler/solutions/104511/java-solution-priorityqueue-and-hashmap/ </t>
+  </si>
+  <si>
+    <t>355. Design Twitter</t>
+  </si>
+  <si>
+    <t>Review. Similar to Merge K Sorted List. 1. Follow/unfollow functions HashMap of UserIds, maps to a HashSet of followeeIds. 2. postTweet is a HashMap of userIds which maps to a list of [count, TweetIds]. 3. Put the time of tweets in a Max Heap for getNewsFeed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/design-twitter/solutions/82825/java-oo-design-with-most-efficient-function-getnewsfeed/ </t>
+  </si>
+  <si>
+    <t>66. Plus One</t>
+  </si>
+  <si>
+    <t>Remember the carry when reaching 10. The crux is to manage 2 potential result arrays, newDigits and the input digits array in place. If there is a carry at the end, we add it to newDigits[0] and then return it, else we just return the input array which we computed in place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/plus-one/solutions/2706861/java-fastest-0ms-runtime-easy-and-elegant-solution/ </t>
   </si>
 </sst>
 </file>
@@ -965,8 +983,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E85" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E85" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E87" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E87" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1241,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,6 +2708,40 @@
       </c>
       <c r="E85" s="3" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>273</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" t="s">
+        <v>274</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" t="s">
+        <v>277</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2777,11 +2829,13 @@
     <hyperlink ref="E83" r:id="rId81" xr:uid="{A1AE87C1-ACB6-474C-9E85-33EC8A7BCDE1}"/>
     <hyperlink ref="E84" r:id="rId82" xr:uid="{A4EA6566-C022-402B-B933-2D8158BE5DBD}"/>
     <hyperlink ref="E85" r:id="rId83" xr:uid="{A4A7A1BD-66B7-4214-A900-B665A9E8AF3F}"/>
+    <hyperlink ref="E86" r:id="rId84" xr:uid="{85935840-A156-42EC-A4B1-59D567D3BF87}"/>
+    <hyperlink ref="E87" r:id="rId85" xr:uid="{611AFF68-67C1-40B1-A2CF-AD717B47F012}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId86"/>
   <tableParts count="1">
-    <tablePart r:id="rId85"/>
+    <tablePart r:id="rId87"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C2E745-CA35-483D-AA69-386607E3CD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4137AEF-927D-4A8D-8729-37632B69A4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="282">
   <si>
     <t>Question</t>
   </si>
@@ -873,6 +873,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/plus-one/solutions/2706861/java-fastest-0ms-runtime-easy-and-elegant-solution/ </t>
+  </si>
+  <si>
+    <t>295. Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>2 Heaps - We use 2 heaps, small heap and large heap, so we can get the median by adding the top of max heap and the top of the min heap and dividing by 2. However, if one of the heaps has odd length, we take the max of the min heap, or vice versa (the middle element), then return that one as the median. To insert the elements, first add to the max heap, and based on conditions, remove from the max heap (small) and add to the min heap (large), and vice versa. The conditions are the lengths need to be approx. equal, and the values of the max heap (small) are &lt; the values of the min heap (large).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-median-from-data-stream/solutions/74047/java-python-two-heap-solution-o-log-n-add-o-1-find/ </t>
   </si>
 </sst>
 </file>
@@ -983,8 +992,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E87" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E87" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E88" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E88" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1259,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,6 +2751,23 @@
       </c>
       <c r="E87" s="3" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" t="s">
+        <v>280</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2831,11 +2857,12 @@
     <hyperlink ref="E85" r:id="rId83" xr:uid="{A4A7A1BD-66B7-4214-A900-B665A9E8AF3F}"/>
     <hyperlink ref="E86" r:id="rId84" xr:uid="{85935840-A156-42EC-A4B1-59D567D3BF87}"/>
     <hyperlink ref="E87" r:id="rId85" xr:uid="{611AFF68-67C1-40B1-A2CF-AD717B47F012}"/>
+    <hyperlink ref="E88" r:id="rId86" xr:uid="{D9BAABF2-2685-4E29-BBD1-B1FCE7F116AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId86"/>
+  <pageSetup orientation="portrait" r:id="rId87"/>
   <tableParts count="1">
-    <tablePart r:id="rId87"/>
+    <tablePart r:id="rId88"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4137AEF-927D-4A8D-8729-37632B69A4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF273A13-9CC8-4FAB-AF2B-52310F555542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="285">
   <si>
     <t>Question</t>
   </si>
@@ -882,6 +882,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/find-median-from-data-stream/solutions/74047/java-python-two-heap-solution-o-log-n-add-o-1-find/ </t>
+  </si>
+  <si>
+    <t>743. Network Delay Time</t>
+  </si>
+  <si>
+    <t>Bellman Ford Time: O(nt), Space: O(n), or Djikstra's - Shortest Path in Graph, BFS variation which uses a PriorityQueue not a regular Queue to handle costs. As there can be multiple paths, we maintain a MinHeap for (path length, Node), and then we use theses pairs for our BFS Graph traversal. The Time complexity is O(E log V).</t>
+  </si>
+  <si>
+    <t>Djikstra's:  https://leetcode.com/problems/network-delay-time/solutions/210698/java-djikstra-bfs-concise-and-very-easy-to-understand/. Bellman-Ford: https://leetcode.com/problems/network-delay-time/solutions/576893/java-simple-bellman-ford-algorithm-solution-2-approaches-with-explanation/</t>
   </si>
 </sst>
 </file>
@@ -992,8 +1001,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E88" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E88" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E89" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E89" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1268,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,6 +2777,23 @@
       </c>
       <c r="E88" s="3" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" t="s">
+        <v>283</v>
+      </c>
+      <c r="E89" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF273A13-9CC8-4FAB-AF2B-52310F555542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00848FA-DF5E-4BAC-9FB5-572DAE4A8E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="288">
   <si>
     <t>Question</t>
   </si>
@@ -891,6 +891,15 @@
   </si>
   <si>
     <t>Djikstra's:  https://leetcode.com/problems/network-delay-time/solutions/210698/java-djikstra-bfs-concise-and-very-easy-to-understand/. Bellman-Ford: https://leetcode.com/problems/network-delay-time/solutions/576893/java-simple-bellman-ford-algorithm-solution-2-approaches-with-explanation/</t>
+  </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+  </si>
+  <si>
+    <t>The Brute Force solution gives a TLE. Use the Divide and Conquer solution and Recursion. The base cases are x=0 and n=0. Negative exponents are 1/(x^n). Handle that calculation at the end. It can also be handled with bit manipulation.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/powx-n/solutions/19546/short-and-easy-to-understand-solution/</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1010,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E89" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E89" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E90" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E90" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1277,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,6 +2803,23 @@
       </c>
       <c r="E89" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>285</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2884,11 +2910,12 @@
     <hyperlink ref="E86" r:id="rId84" xr:uid="{85935840-A156-42EC-A4B1-59D567D3BF87}"/>
     <hyperlink ref="E87" r:id="rId85" xr:uid="{611AFF68-67C1-40B1-A2CF-AD717B47F012}"/>
     <hyperlink ref="E88" r:id="rId86" xr:uid="{D9BAABF2-2685-4E29-BBD1-B1FCE7F116AB}"/>
+    <hyperlink ref="E90" r:id="rId87" xr:uid="{5DD35F4C-7393-44F8-8F0A-5A97EB81B1AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId87"/>
+  <pageSetup orientation="portrait" r:id="rId88"/>
   <tableParts count="1">
-    <tablePart r:id="rId88"/>
+    <tablePart r:id="rId89"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00848FA-DF5E-4BAC-9FB5-572DAE4A8E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E164D3AE-1481-4297-A6B9-3CF2C71231A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="291">
   <si>
     <t>Question</t>
   </si>
@@ -900,6 +900,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/powx-n/solutions/19546/short-and-easy-to-understand-solution/</t>
+  </si>
+  <si>
+    <t>778. Swim in Rising Water</t>
+  </si>
+  <si>
+    <t>Modified Dijkstra's application. We can ignore the t variable in the problem because it is handled implicitly be keeping the heights minimized. We modify classic Dijkstra's to take the time t of the cell values as the cell costs. I.e. it is Dijkstra's but by finding the valid path with the smallest single maximum of the cell values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/swim-in-rising-water/solutions/1284973/swim-in-rising-water-js-python-java-c-easy-dijkstra-s-minpq-solution-w-explanation/ </t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1019,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E90" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E90" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E91" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E91" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1286,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,6 +2829,23 @@
       </c>
       <c r="E90" s="3" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>288</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" t="s">
+        <v>289</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2911,11 +2937,12 @@
     <hyperlink ref="E87" r:id="rId85" xr:uid="{611AFF68-67C1-40B1-A2CF-AD717B47F012}"/>
     <hyperlink ref="E88" r:id="rId86" xr:uid="{D9BAABF2-2685-4E29-BBD1-B1FCE7F116AB}"/>
     <hyperlink ref="E90" r:id="rId87" xr:uid="{5DD35F4C-7393-44F8-8F0A-5A97EB81B1AD}"/>
+    <hyperlink ref="E91" r:id="rId88" xr:uid="{11AD299E-5BAA-4BA1-91E1-6E08A78E3BDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId88"/>
+  <pageSetup orientation="portrait" r:id="rId89"/>
   <tableParts count="1">
-    <tablePart r:id="rId89"/>
+    <tablePart r:id="rId90"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E164D3AE-1481-4297-A6B9-3CF2C71231A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5D2DD7-D368-4404-832C-05101AB43C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="294">
   <si>
     <t>Question</t>
   </si>
@@ -909,6 +909,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/swim-in-rising-water/solutions/1284973/swim-in-rising-water-js-python-java-c-easy-dijkstra-s-minpq-solution-w-explanation/ </t>
+  </si>
+  <si>
+    <t>43. Multiply Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/multiply-strings/solutions/17608/ac-solution-in-java-with-explanation/ </t>
+  </si>
+  <si>
+    <t>Understand the multiplication algorithm in detail, then translate it into code. Multiply the bottom number's digits right to left to the top one's with carry, and you get the position of where to put the sum by the sum of the indices of the 2 digits you are multiplying. The indices of the digits are iterated in reverse order. It is easiest to handle as an array then convert back to string at the end. If any of the numbers are 0, return 0. Use Integer.valueOf(String.valueOf(num1.charAt(i)) ... and for the digit manipulation, use / and %. It is easier to simply add the carry immediately. At the end, reverse in place, then cut off the leading zeroes. Use StringBuilder.reverse() if you can remember it.</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1028,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E91" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E91" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E92" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E92" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1295,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,6 +2855,23 @@
       </c>
       <c r="E91" s="3" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" t="s">
+        <v>293</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2938,11 +2964,12 @@
     <hyperlink ref="E88" r:id="rId86" xr:uid="{D9BAABF2-2685-4E29-BBD1-B1FCE7F116AB}"/>
     <hyperlink ref="E90" r:id="rId87" xr:uid="{5DD35F4C-7393-44F8-8F0A-5A97EB81B1AD}"/>
     <hyperlink ref="E91" r:id="rId88" xr:uid="{11AD299E-5BAA-4BA1-91E1-6E08A78E3BDD}"/>
+    <hyperlink ref="E92" r:id="rId89" xr:uid="{F2CAF672-895C-4822-A488-E27F82A30877}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId89"/>
+  <pageSetup orientation="portrait" r:id="rId90"/>
   <tableParts count="1">
-    <tablePart r:id="rId90"/>
+    <tablePart r:id="rId91"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5D2DD7-D368-4404-832C-05101AB43C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBDBE63-95C7-4B19-BDD5-2CD545B24EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="297">
   <si>
     <t>Question</t>
   </si>
@@ -918,6 +918,15 @@
   </si>
   <si>
     <t>Understand the multiplication algorithm in detail, then translate it into code. Multiply the bottom number's digits right to left to the top one's with carry, and you get the position of where to put the sum by the sum of the indices of the 2 digits you are multiplying. The indices of the digits are iterated in reverse order. It is easiest to handle as an array then convert back to string at the end. If any of the numbers are 0, return 0. Use Integer.valueOf(String.valueOf(num1.charAt(i)) ... and for the digit manipulation, use / and %. It is easier to simply add the carry immediately. At the end, reverse in place, then cut off the leading zeroes. Use StringBuilder.reverse() if you can remember it.</t>
+  </si>
+  <si>
+    <t>787. Cheapest Flights within K Stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/cheapest-flights-within-k-stops/solutions/361711/java-dfs-bfs-bellman-ford-dijkstra-s/ </t>
+  </si>
+  <si>
+    <t>Bellman Ford. It is an extension of BFS. It consists of initializing the initial array to infinity, then iterative relaxation of the edges with a temp copy of the initial array at each layer, to get the minimum cost per step to each node. At the end, we return the cost value at the destination node index in the initial array, which should now be populated with the minimum cost value if a path exists. You can work your way to the solution using DFS, BFS, and Dijkstra's, but this problem is meant to be solved with Bellman Ford, and the others will give a TLE on LC.</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1037,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E92" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E92" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E93" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E93" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1304,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,6 +2881,23 @@
       </c>
       <c r="E92" s="3" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2965,11 +2991,12 @@
     <hyperlink ref="E90" r:id="rId87" xr:uid="{5DD35F4C-7393-44F8-8F0A-5A97EB81B1AD}"/>
     <hyperlink ref="E91" r:id="rId88" xr:uid="{11AD299E-5BAA-4BA1-91E1-6E08A78E3BDD}"/>
     <hyperlink ref="E92" r:id="rId89" xr:uid="{F2CAF672-895C-4822-A488-E27F82A30877}"/>
+    <hyperlink ref="E93" r:id="rId90" xr:uid="{248821E2-00B4-43D6-BECF-232BFD8CAB22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId90"/>
+  <pageSetup orientation="portrait" r:id="rId91"/>
   <tableParts count="1">
-    <tablePart r:id="rId91"/>
+    <tablePart r:id="rId92"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBDBE63-95C7-4B19-BDD5-2CD545B24EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11259FDD-81D9-44EA-BE4E-B317208D196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="303">
   <si>
     <t>Question</t>
   </si>
@@ -927,6 +927,24 @@
   </si>
   <si>
     <t>Bellman Ford. It is an extension of BFS. It consists of initializing the initial array to infinity, then iterative relaxation of the edges with a temp copy of the initial array at each layer, to get the minimum cost per step to each node. At the end, we return the cost value at the destination node index in the initial array, which should now be populated with the minimum cost value if a path exists. You can work your way to the solution using DFS, BFS, and Dijkstra's, but this problem is meant to be solved with Bellman Ford, and the others will give a TLE on LC.</t>
+  </si>
+  <si>
+    <t>518. Coin Change 2</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack Problem. Start with Brute force, recursion with memoization, then bottom-up. The optimal is a Tabular representation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/coin-change-ii/solutions/3892702/100-dynamic-programming-video-optimal-solution/ </t>
+  </si>
+  <si>
+    <t>5877. Detect Squares</t>
+  </si>
+  <si>
+    <t>We store the points in a list.To verify if a square is possible, we check if 2 points form a diagonal, where the height (y difference) is equal to the widgth (x difference). We need to consider duplicates of points as they add possible combinations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/detect-squares/solutions/1472167/java-clean-solution-with-list-and-hashmap/ </t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1055,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E93" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E93" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E95" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E95" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1313,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,6 +2916,40 @@
       </c>
       <c r="E93" s="3" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" t="s">
+        <v>298</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" t="s">
+        <v>301</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2992,11 +3044,13 @@
     <hyperlink ref="E91" r:id="rId88" xr:uid="{11AD299E-5BAA-4BA1-91E1-6E08A78E3BDD}"/>
     <hyperlink ref="E92" r:id="rId89" xr:uid="{F2CAF672-895C-4822-A488-E27F82A30877}"/>
     <hyperlink ref="E93" r:id="rId90" xr:uid="{248821E2-00B4-43D6-BECF-232BFD8CAB22}"/>
+    <hyperlink ref="E94" r:id="rId91" xr:uid="{B718EC84-7657-454A-8643-2D5E08D6523B}"/>
+    <hyperlink ref="E95" r:id="rId92" xr:uid="{CE41C08D-7D36-4B78-BFC3-C1B55E112D47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId91"/>
+  <pageSetup orientation="portrait" r:id="rId93"/>
   <tableParts count="1">
-    <tablePart r:id="rId92"/>
+    <tablePart r:id="rId94"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11259FDD-81D9-44EA-BE4E-B317208D196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531E6A4B-F146-42DA-A692-B62CE712CAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="310">
   <si>
     <t>Question</t>
   </si>
@@ -945,6 +945,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/detect-squares/solutions/1472167/java-clean-solution-with-list-and-hashmap/ </t>
+  </si>
+  <si>
+    <t>494. Target Sum</t>
+  </si>
+  <si>
+    <t>At each step (element in nums), there are 2 choices: add the element or subtract it. This forms a binary tree of decisions. We use a hashmap cache to store computations. The base case is when i == nums.length, and if sum equals the target, it is a valid way. The recursive step at each step should add the sum of both recursive calls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/target-sum/solutions/455024/dp-is-easy-5-steps-to-think-through-dp-questions/ </t>
+  </si>
+  <si>
+    <t>190. Reverse Bits</t>
+  </si>
+  <si>
+    <t>Easay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/reverse-bits/solutions/54738/sharing-my-2ms-java-solution-with-explanation/ </t>
+  </si>
+  <si>
+    <t>Review bit manipulation. To get the current bit, we can AND with 1. To shift the 1 to see the bits to the left, we shift the 1 to the left with &lt;&lt;. To fill the output, we start by shifting 1 to the very left with &lt;&lt; 31, then use OR with (n &amp; 1) to replace the bits with the LSB of n, reversed. The crux is to understand how to work with least significant bits (LSB) as a pointer, left and right shift, Logic OR and Logic AND to get and replace LSBs.</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1076,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E95" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E95" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E97" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E97" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1331,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2950,6 +2971,40 @@
       </c>
       <c r="E95" s="3" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" t="s">
+        <v>304</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>306</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" t="s">
+        <v>309</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3046,11 +3101,13 @@
     <hyperlink ref="E93" r:id="rId90" xr:uid="{248821E2-00B4-43D6-BECF-232BFD8CAB22}"/>
     <hyperlink ref="E94" r:id="rId91" xr:uid="{B718EC84-7657-454A-8643-2D5E08D6523B}"/>
     <hyperlink ref="E95" r:id="rId92" xr:uid="{CE41C08D-7D36-4B78-BFC3-C1B55E112D47}"/>
+    <hyperlink ref="E96" r:id="rId93" xr:uid="{A3950D25-F02D-48B4-B8FD-908BD1F32772}"/>
+    <hyperlink ref="E97" r:id="rId94" xr:uid="{B663C090-EB3B-4193-85E5-0A2283907C12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId93"/>
+  <pageSetup orientation="portrait" r:id="rId95"/>
   <tableParts count="1">
-    <tablePart r:id="rId94"/>
+    <tablePart r:id="rId96"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531E6A4B-F146-42DA-A692-B62CE712CAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C2140-D35D-4BBD-9163-F4AB7353C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="318">
   <si>
     <t>Question</t>
   </si>
@@ -959,13 +959,37 @@
     <t>190. Reverse Bits</t>
   </si>
   <si>
-    <t>Easay</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://leetcode.com/problems/reverse-bits/solutions/54738/sharing-my-2ms-java-solution-with-explanation/ </t>
   </si>
   <si>
     <t>Review bit manipulation. To get the current bit, we can AND with 1. To shift the 1 to see the bits to the left, we shift the 1 to the left with &lt;&lt;. To fill the output, we start by shifting 1 to the very left with &lt;&lt; 31, then use OR with (n &amp; 1) to replace the bits with the LSB of n, reversed. The crux is to understand how to work with least significant bits (LSB) as a pointer, left and right shift, Logic OR and Logic AND to get and replace LSBs.</t>
+  </si>
+  <si>
+    <t>97. Interleaving String</t>
+  </si>
+  <si>
+    <t>The position in the target string s3 is given by the sum of the positions of s1 and s2. In the DP, out of bounds is the base case. We need 1 extra row and column, as it can be the case where we take the last character from 1 string, while the other has ended. Start from the bottom right, then work to the top left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/interleaving-string/solutions/32078/dp-solution-in-java/ </t>
+  </si>
+  <si>
+    <t>329. Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>We use DFS on a grid. We cannot reuse positions as an implicit condition of the longest increasing path. We store the longest increasing path from each position in the grid, to cache repeated work. The crux of the solution is the state transition/subproblem calculation where we take 1 + the maximum of the DFS of all 4 directions, and place it in the position in the dp matrix. We encode into our boundary conditions check the condition that value is greater than its parent, to maintain an increasing path.  Key implementation details are: the initialization of the base state of -1, flagging the cell as unvisited. DFS on a 2D matrix 2nd pass to find the max value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/longest-increasing-path-in-a-matrix/solutions/78308/15ms-concise-java-solution/ </t>
+  </si>
+  <si>
+    <t>268. Missing Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/missing-number/solutions/69791/4-line-simple-java-bit-manipulate-solution-with-explaination/ </t>
+  </si>
+  <si>
+    <t>The non bit manipulation solution is to simply take the sum of input and target arrays, then take the difference as the missing number. We can use XOR for O(1) memory and O(N) time. E.g. a^b^b = a. If the numbers are the same, XOR will give a 0 in the output. The order of the numbers does not matter. We XOR the input and the target, and therefore only the missing number is remaining.</t>
   </si>
 </sst>
 </file>
@@ -1036,13 +1060,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1076,8 +1103,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E97" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E97" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E100" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E100" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1352,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,16 +3022,67 @@
         <v>306</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>307</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
         <v>24</v>
       </c>
       <c r="D97" t="s">
+        <v>308</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>309</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>308</v>
+      <c r="B98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" t="s">
+        <v>310</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>312</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>315</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>317</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3103,11 +3181,14 @@
     <hyperlink ref="E95" r:id="rId92" xr:uid="{CE41C08D-7D36-4B78-BFC3-C1B55E112D47}"/>
     <hyperlink ref="E96" r:id="rId93" xr:uid="{A3950D25-F02D-48B4-B8FD-908BD1F32772}"/>
     <hyperlink ref="E97" r:id="rId94" xr:uid="{B663C090-EB3B-4193-85E5-0A2283907C12}"/>
+    <hyperlink ref="E98" r:id="rId95" xr:uid="{BEFEDD1F-8788-4597-A3AF-7DC84E6A4A81}"/>
+    <hyperlink ref="E99" r:id="rId96" xr:uid="{D92B81F8-4FFA-4D2E-B629-4757E14A335E}"/>
+    <hyperlink ref="E100" r:id="rId97" xr:uid="{057193A3-880B-49FB-A66D-45992C432AA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId95"/>
+  <pageSetup orientation="portrait" r:id="rId98"/>
   <tableParts count="1">
-    <tablePart r:id="rId96"/>
+    <tablePart r:id="rId99"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C2140-D35D-4BBD-9163-F4AB7353C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150D8FA9-00FE-4723-89BC-E3087E02A9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="324">
   <si>
     <t>Question</t>
   </si>
@@ -990,6 +990,24 @@
   </si>
   <si>
     <t>The non bit manipulation solution is to simply take the sum of input and target arrays, then take the difference as the missing number. We can use XOR for O(1) memory and O(N) time. E.g. a^b^b = a. If the numbers are the same, XOR will give a 0 in the output. The order of the numbers does not matter. We XOR the input and the target, and therefore only the missing number is remaining.</t>
+  </si>
+  <si>
+    <t>115. Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>We can use a top-down solution. The crux is to understand the state transition possibilities: Base case 1: if t is empty, there is only 1 possible s, which is also empty, Base case 2: if t is non-empty, yet s is empty, there can be no solutions, so 0. If s[i] equalts t[j]: check (i+1, j+1) and check (i+1, j). Else if no match, then check (i+1, j). In recursion, these iterations are handled implicitly by the function calls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/distinct-subsequences/solutions/37327/easy-to-understand-dp-in-java/ </t>
+  </si>
+  <si>
+    <t>371. Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>Each digit must be XOR'ed, but the carry is needed in the case that both digits are 1. This is given by (a &amp; b) &lt;&lt; 1. We need to perform a ^ b first (XOR), then a &amp; b &lt;&lt; 1. We need a temp int for the left shift, as we need to perform it on the old value, not after the XOR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/sum-of-two-integers/solutions/84278/a-summary-how-to-use-bit-manipulation-to-solve-problems-easily-and-efficiently/ </t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1121,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E100" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E100" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E102" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E102" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1379,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3083,6 +3101,40 @@
       </c>
       <c r="E100" s="3" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" t="s">
+        <v>319</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>321</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" t="s">
+        <v>322</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3184,11 +3236,13 @@
     <hyperlink ref="E98" r:id="rId95" xr:uid="{BEFEDD1F-8788-4597-A3AF-7DC84E6A4A81}"/>
     <hyperlink ref="E99" r:id="rId96" xr:uid="{D92B81F8-4FFA-4D2E-B629-4757E14A335E}"/>
     <hyperlink ref="E100" r:id="rId97" xr:uid="{057193A3-880B-49FB-A66D-45992C432AA7}"/>
+    <hyperlink ref="E101" r:id="rId98" xr:uid="{EF8110F7-0B67-403A-A363-282FA8D94091}"/>
+    <hyperlink ref="E102" r:id="rId99" xr:uid="{661B2B31-AF15-453E-A305-05E3CEBCD1E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId98"/>
+  <pageSetup orientation="portrait" r:id="rId100"/>
   <tableParts count="1">
-    <tablePart r:id="rId99"/>
+    <tablePart r:id="rId101"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150D8FA9-00FE-4723-89BC-E3087E02A9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC50ECF-4C4A-4B19-98FD-EAB32B0F4FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="333">
   <si>
     <t>Question</t>
   </si>
@@ -1008,6 +1008,33 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/sum-of-two-integers/solutions/84278/a-summary-how-to-use-bit-manipulation-to-solve-problems-easily-and-efficiently/ </t>
+  </si>
+  <si>
+    <t>72. Edit Distance</t>
+  </si>
+  <si>
+    <t>The indices represent the characters in the string up to that point,and the value represents the minimum operations to get there.The base case of 1 empty word is to either delete every character, or copy and add each character. Also, another base case is if the characters up to the point match, which will take 0 operations. The operations can be defined as index operations: matching (i+1, j+1), insert (i, j+1), delete (i+1, j), replace (i+1, j+1) after replacing. We represent it as a 2d dp grid and solve bottom-up (from bottom right to top left). The extra layer at the end for the base cases (empty strings).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/edit-distance/solutions/25849/java-dp-solution-o-nm/ </t>
+  </si>
+  <si>
+    <t>7. Reverse Integer</t>
+  </si>
+  <si>
+    <t>To detect the overflow, we check if the resulting reversed integer is equal to the max integer except for the last digit (by chopping off the end by 10). Then we compare the last digit to see if it goes out of bounds. When an integer overflows, recognize that it is rolled over. Initialize the resulting num from 0, and build it up with checks before each step. A key implementation detail is to handle the negative before and after the core logic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/reverse-integer/solutions/3136892/java-beat-100-well-explained-code/ </t>
+  </si>
+  <si>
+    <t>312. Burst Balloons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/burst-balloons/solutions/76228/share-some-analysis-and-explanations/ </t>
+  </si>
+  <si>
+    <t>Review. The Brute Force solution is the decision tree O(N^n). The crux is to consider for the balloons to compute what happens if it is popped last, for the purpose of the dp array. The time complexity of the optimal is O(n^3) and O(n^2) space.</t>
   </si>
 </sst>
 </file>
@@ -1121,8 +1148,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E102" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E102" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E105" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E105" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1397,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3135,6 +3162,57 @@
       </c>
       <c r="E102" s="3" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>324</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" t="s">
+        <v>325</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>327</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" t="s">
+        <v>328</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>330</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>90</v>
+      </c>
+      <c r="D105" t="s">
+        <v>332</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3238,11 +3316,14 @@
     <hyperlink ref="E100" r:id="rId97" xr:uid="{057193A3-880B-49FB-A66D-45992C432AA7}"/>
     <hyperlink ref="E101" r:id="rId98" xr:uid="{EF8110F7-0B67-403A-A363-282FA8D94091}"/>
     <hyperlink ref="E102" r:id="rId99" xr:uid="{661B2B31-AF15-453E-A305-05E3CEBCD1E0}"/>
+    <hyperlink ref="E103" r:id="rId100" xr:uid="{F9874DD5-86F8-43F1-913A-F44432B85BDD}"/>
+    <hyperlink ref="E104" r:id="rId101" xr:uid="{0E450A26-1D93-4612-9D4A-FD1E5D2CEF6C}"/>
+    <hyperlink ref="E105" r:id="rId102" xr:uid="{ED05E0E4-D757-405E-A527-46E3B16D41A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId100"/>
+  <pageSetup orientation="portrait" r:id="rId103"/>
   <tableParts count="1">
-    <tablePart r:id="rId101"/>
+    <tablePart r:id="rId104"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC50ECF-4C4A-4B19-98FD-EAB32B0F4FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4D5091-8845-4D25-9B4A-FE28442A35DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="336">
   <si>
     <t>Question</t>
   </si>
@@ -1035,6 +1035,15 @@
   </si>
   <si>
     <t>Review. The Brute Force solution is the decision tree O(N^n). The crux is to consider for the balloons to compute what happens if it is popped last, for the purpose of the dp array. The time complexity of the optimal is O(n^3) and O(n^2) space.</t>
+  </si>
+  <si>
+    <t>10. Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>The crux is to use the indices of the strings to perform the operations. In the cache, we can store valid or invalid up to that point. In the base case, recognize that if index j reaches the end only, then we have exhausted the characters in p, the String  we use to match, therefore the check should return false. There are 3 core logics to code: 1. Matching characters: s(i) and p(j) are matching OR p(j) is '.' 2. p(j) is '*': 2.a. We can choose to not use the '*', or empty set. We skip both its preceding char and the '*'. 2.b. We do take the '*' and its preceding character, by i+1 and j. Moving past j will be handled in subsequent calls. Note that we check j+1 at each step for the occurrence of '*'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/regular-expression-matching/solutions/5847/evolve-from-brute-force-to-dp/ </t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1157,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E105" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E105" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E106" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E106" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1424,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+      <selection activeCell="D111" sqref="D110:D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3213,6 +3222,23 @@
       </c>
       <c r="E105" s="3" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>333</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>90</v>
+      </c>
+      <c r="D106" t="s">
+        <v>334</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3319,11 +3345,12 @@
     <hyperlink ref="E103" r:id="rId100" xr:uid="{F9874DD5-86F8-43F1-913A-F44432B85BDD}"/>
     <hyperlink ref="E104" r:id="rId101" xr:uid="{0E450A26-1D93-4612-9D4A-FD1E5D2CEF6C}"/>
     <hyperlink ref="E105" r:id="rId102" xr:uid="{ED05E0E4-D757-405E-A527-46E3B16D41A6}"/>
+    <hyperlink ref="E106" r:id="rId103" xr:uid="{1CF22A4F-D258-45B2-ABBD-F76220634F81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId103"/>
+  <pageSetup orientation="portrait" r:id="rId104"/>
   <tableParts count="1">
-    <tablePart r:id="rId104"/>
+    <tablePart r:id="rId105"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4D5091-8845-4D25-9B4A-FE28442A35DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DA89F4-AAB8-4E8B-9E37-D378EC5F126B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="342">
   <si>
     <t>Question</t>
   </si>
@@ -215,9 +215,6 @@
     <t>141. Linked List Cycle</t>
   </si>
   <si>
-    <t>Tortoise and the Hare (Floyd's)</t>
-  </si>
-  <si>
     <t>Visualize graphically the pivot point, look for the most ideal conditions to narrow the search, and reject the rest.</t>
   </si>
   <si>
@@ -1044,6 +1041,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/regular-expression-matching/solutions/5847/evolve-from-brute-force-to-dp/ </t>
+  </si>
+  <si>
+    <t>Tortoise and the Hare (Floyd's). Remember to use fast and fast.next for the null checks, as it is moving first. The loop should contain fast.next.next.</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Perform recursive DFS on left and right, and return the maximum + 1 (the node itself). The base case is the null node.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-depth-of-binary-tree/solutions/1769344/java-c-easy-to-go-explanation-solution/ </t>
+  </si>
+  <si>
+    <t>704. Binary Search</t>
+  </si>
+  <si>
+    <t>Classic Binary Search. You should know this in your sleep. Generally, use while (l &lt;= r) for outer loop, and for partitions use l = mid + 1 and r = mid - 1. Note that calculating mid gives TLE if you use (l+(r-l))/2 instead of l+(r-l)/2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/binary-search/solutions/423162/binary-search-101/ </t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1175,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E106" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E106" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E108" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E108" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1433,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="D111" sqref="D110:D111"/>
+    <sheetView tabSelected="1" topLeftCell="B92" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1533,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1705,7 +1723,7 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>55</v>
@@ -1722,10 +1740,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1739,7 +1757,7 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>335</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>57</v>
@@ -1747,7 +1765,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -1756,15 +1774,15 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -1773,15 +1791,15 @@
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
@@ -1790,15 +1808,15 @@
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -1807,32 +1825,32 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
@@ -1841,185 +1859,185 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>83</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
@@ -2028,32 +2046,32 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>6</v>
@@ -2062,49 +2080,49 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>6</v>
@@ -2113,32 +2131,32 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>133</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
@@ -2147,15 +2165,15 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
@@ -2164,15 +2182,15 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>17</v>
@@ -2181,15 +2199,15 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>17</v>
@@ -2198,49 +2216,49 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
@@ -2249,32 +2267,32 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>6</v>
@@ -2283,32 +2301,32 @@
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>23</v>
@@ -2317,15 +2335,15 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>17</v>
@@ -2334,66 +2352,66 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
         <v>178</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>179</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>23</v>
@@ -2402,15 +2420,15 @@
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>6</v>
@@ -2419,32 +2437,32 @@
         <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>23</v>
@@ -2453,32 +2471,32 @@
         <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" t="s">
         <v>194</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>6</v>
@@ -2487,32 +2505,32 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" t="s">
-        <v>202</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
@@ -2521,32 +2539,32 @@
         <v>50</v>
       </c>
       <c r="D64" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" t="s">
         <v>206</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>6</v>
@@ -2555,525 +2573,525 @@
         <v>50</v>
       </c>
       <c r="D66" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" t="s">
         <v>212</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" t="s">
+        <v>217</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
-        <v>179</v>
-      </c>
-      <c r="D68" t="s">
-        <v>218</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" t="s">
         <v>221</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" t="s">
         <v>224</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>179</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
         <v>230</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>231</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
         <v>234</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>235</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>240</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
         <v>241</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="D76" t="s">
-        <v>244</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>244</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>246</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>245</v>
+      </c>
+      <c r="D78" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" t="s">
-        <v>246</v>
-      </c>
-      <c r="D78" t="s">
-        <v>251</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" t="s">
         <v>252</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s">
-        <v>179</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" t="s">
         <v>255</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" t="s">
-        <v>242</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>245</v>
+      </c>
+      <c r="D81" t="s">
         <v>258</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" t="s">
+        <v>261</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D83" t="s">
+        <v>264</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>269</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" t="s">
         <v>270</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" t="s">
-        <v>235</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>272</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" t="s">
         <v>273</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" t="s">
-        <v>235</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" t="s">
+        <v>276</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D88" t="s">
+        <v>279</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" t="s">
         <v>282</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" t="s">
-        <v>179</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>283</v>
-      </c>
-      <c r="E89" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" t="s">
         <v>285</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" t="s">
-        <v>246</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D91" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" t="s">
+        <v>292</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" t="s">
-        <v>246</v>
-      </c>
-      <c r="D92" t="s">
-        <v>293</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>293</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" t="s">
+        <v>295</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" t="s">
-        <v>179</v>
-      </c>
-      <c r="D93" t="s">
-        <v>296</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>296</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" t="s">
         <v>297</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" t="s">
-        <v>90</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>299</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>245</v>
+      </c>
+      <c r="D95" t="s">
         <v>300</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" t="s">
-        <v>246</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>302</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" t="s">
         <v>303</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" t="s">
-        <v>90</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>23</v>
@@ -3082,49 +3100,49 @@
         <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>308</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" t="s">
         <v>309</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" t="s">
-        <v>90</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D99" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>23</v>
@@ -3133,32 +3151,32 @@
         <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D101" t="s">
+        <v>318</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>6</v>
@@ -3167,32 +3185,32 @@
         <v>24</v>
       </c>
       <c r="D102" t="s">
+        <v>321</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>323</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" t="s">
         <v>324</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" t="s">
-        <v>90</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="E103" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>6</v>
@@ -3201,44 +3219,78 @@
         <v>24</v>
       </c>
       <c r="D104" t="s">
+        <v>327</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D105" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D106" t="s">
+        <v>333</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>335</v>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>336</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" t="s">
+        <v>75</v>
+      </c>
+      <c r="D107" t="s">
+        <v>337</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>339</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>340</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3346,11 +3398,13 @@
     <hyperlink ref="E104" r:id="rId101" xr:uid="{0E450A26-1D93-4612-9D4A-FD1E5D2CEF6C}"/>
     <hyperlink ref="E105" r:id="rId102" xr:uid="{ED05E0E4-D757-405E-A527-46E3B16D41A6}"/>
     <hyperlink ref="E106" r:id="rId103" xr:uid="{1CF22A4F-D258-45B2-ABBD-F76220634F81}"/>
+    <hyperlink ref="E107" r:id="rId104" xr:uid="{317456F3-CC04-4C80-925A-F23EF607A64D}"/>
+    <hyperlink ref="E108" r:id="rId105" xr:uid="{B21FE459-5943-4A81-B3D0-FABB065886C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId104"/>
+  <pageSetup orientation="portrait" r:id="rId106"/>
   <tableParts count="1">
-    <tablePart r:id="rId105"/>
+    <tablePart r:id="rId107"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DA89F4-AAB8-4E8B-9E37-D378EC5F126B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E8164-83C1-45A7-85DB-7362A43E3605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="345">
   <si>
     <t>Question</t>
   </si>
@@ -1062,6 +1062,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/binary-search/solutions/423162/binary-search-101/ </t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Store max as a global variable. Recursively call dfs on each node, at each node compute max = Math.max(max, left + right), and return Math.max(left, right)+1 in the dfs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/diameter-of-binary-tree/solutions/101132/java-solution-maxdepth/ </t>
   </si>
 </sst>
 </file>
@@ -1175,8 +1184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E108" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E108" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E109" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E109" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -1451,9 +1460,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B92" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
       <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
@@ -3291,6 +3300,23 @@
       </c>
       <c r="E108" s="3" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>342</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" t="s">
+        <v>343</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3400,11 +3426,12 @@
     <hyperlink ref="E106" r:id="rId103" xr:uid="{1CF22A4F-D258-45B2-ABBD-F76220634F81}"/>
     <hyperlink ref="E107" r:id="rId104" xr:uid="{317456F3-CC04-4C80-925A-F23EF607A64D}"/>
     <hyperlink ref="E108" r:id="rId105" xr:uid="{B21FE459-5943-4A81-B3D0-FABB065886C7}"/>
+    <hyperlink ref="E109" r:id="rId106" xr:uid="{EC13FF32-4FA5-42DA-9F71-FDCB20F62E7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId106"/>
+  <pageSetup orientation="portrait" r:id="rId107"/>
   <tableParts count="1">
-    <tablePart r:id="rId107"/>
+    <tablePart r:id="rId108"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/NC150.xlsx
+++ b/java/NC150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E8164-83C1-45A7-85DB-7362A43E3605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E579F52-C5FE-4207-8655-0F5B65A9AF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
